--- a/source/pages.xlsx
+++ b/source/pages.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harmsm/work/admin/website/github/website/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9094964B-3939-2F48-BDAA-B982EE594183}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679369C7-C4B2-634D-829D-D0B47F9D7DFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34360" yWindow="-180" windowWidth="28800" windowHeight="17040" xr2:uid="{A8B7147D-77A5-1347-9728-F2522D06E352}"/>
+    <workbookView xWindow="42420" yWindow="-1180" windowWidth="24540" windowHeight="17540" activeTab="2" xr2:uid="{A8B7147D-77A5-1347-9728-F2522D06E352}"/>
   </bookViews>
   <sheets>
-    <sheet name="people" sheetId="2" r:id="rId1"/>
-    <sheet name="projects" sheetId="1" r:id="rId2"/>
+    <sheet name="publications" sheetId="5" r:id="rId1"/>
+    <sheet name="people" sheetId="2" r:id="rId2"/>
+    <sheet name="projects" sheetId="3" r:id="rId3"/>
+    <sheet name="funding" sheetId="4" r:id="rId4"/>
+    <sheet name="projects_x" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="337">
   <si>
     <t>Sequence space</t>
   </si>
@@ -186,9 +189,6 @@
     <t>Jeremy Anderson</t>
   </si>
   <si>
-    <t>Postdoc (left 2019)</t>
-  </si>
-  <si>
     <t>Data scientist</t>
   </si>
   <si>
@@ -505,6 +505,549 @@
   </si>
   <si>
     <t>Developmental biologist turned evolutionary biochemist.</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>evolution-of-specificity_compressed.png</t>
+  </si>
+  <si>
+    <t>pytc_compressed.png</t>
+  </si>
+  <si>
+    <t>teaching_compressed.png</t>
+  </si>
+  <si>
+    <t>tlr4-cp_compressed.png</t>
+  </si>
+  <si>
+    <t>collage_compressed.png</t>
+  </si>
+  <si>
+    <t>Evolution through sequence space</t>
+  </si>
+  <si>
+    <t>Evolution of binding specificity</t>
+  </si>
+  <si>
+    <t>Open access teaching</t>
+  </si>
+  <si>
+    <t>Open source software</t>
+  </si>
+  <si>
+    <t>projects.html#innate_immune</t>
+  </si>
+  <si>
+    <t>nih_150x150.png_compressed.png</t>
+  </si>
+  <si>
+    <t>NIH R01GM117140-04</t>
+  </si>
+  <si>
+    <t>NSF CAREER 2019, #1844963</t>
+  </si>
+  <si>
+    <t>2015 Pew Biomedical Scholar</t>
+  </si>
+  <si>
+    <t>AHA-15BGIA22830013</t>
+  </si>
+  <si>
+    <t>Medical Research Foundation New Investigator Grant</t>
+  </si>
+  <si>
+    <t>NIH T32GM007759</t>
+  </si>
+  <si>
+    <t>NIH T32GM007413</t>
+  </si>
+  <si>
+    <t>pew_424x150.png_compressed.png</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>ohsu_137x150.png_compressed.png</t>
+  </si>
+  <si>
+    <t>sloan_141x150.png_compressed.png</t>
+  </si>
+  <si>
+    <t>nsf_150x150.png</t>
+  </si>
+  <si>
+    <t>aha_374x150.png_compressed.png</t>
+  </si>
+  <si>
+    <t>http://molbio.uoregon.edu/molbio-training-program/</t>
+  </si>
+  <si>
+    <t>http://molbio.uoregon.edu/genetics-training-program/</t>
+  </si>
+  <si>
+    <t>https://projectreporter.nih.gov/project_info_description.cfm?aid=9780516&amp;icde=51291337&amp;ddparam=&amp;ddvalue=&amp;ddsub=&amp;cr=1&amp;csb=default&amp;cs=ASC&amp;pball=</t>
+  </si>
+  <si>
+    <t>https://www.nsf.gov/awardsearch/showAward?AWD_ID=1844963&amp;HistoricalAwards=false</t>
+  </si>
+  <si>
+    <t>https://sloan.org/past-fellows</t>
+  </si>
+  <si>
+    <t>https://www.pewtrusts.org/en/projects/pew-biomedical-scholars/directory-of-pew-scholars/2015/michael-harms</t>
+  </si>
+  <si>
+    <t>https://www.heart.org/</t>
+  </si>
+  <si>
+    <t>https://www.ohsu.edu/foundation/mrf-grants</t>
+  </si>
+  <si>
+    <t>2015 Sloan&lt;br/&gt;Evolutionary&amp; Computational Molec Biol</t>
+  </si>
+  <si>
+    <t>authors</t>
+  </si>
+  <si>
+    <t>Wheeler LC &amp; Harms MJ</t>
+  </si>
+  <si>
+    <t>Were ancestral proteins less specific?</t>
+  </si>
+  <si>
+    <t>journal</t>
+  </si>
+  <si>
+    <t>bioRxiv</t>
+  </si>
+  <si>
+    <t>meta</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1101/2020.05.27.120261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1101/606970 </t>
+  </si>
+  <si>
+    <t>Skeletal geometry and nice transitions restore organ size and shape during zebrafish fin regeneration</t>
+  </si>
+  <si>
+    <t>Wheeler LC, Perkins, Wong CE, Harms MJ</t>
+  </si>
+  <si>
+    <t>Stewart S, Yette GA, Le Bleu HK, Henner AL, Braunstein JA, Chehab JW, Harms MJ, Stankunas K</t>
+  </si>
+  <si>
+    <t>Learning Peptide Recognition Rules for a Low Specificity Protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1101/2020.06.02.131086 </t>
+  </si>
+  <si>
+    <t>Identification and characterization of zebrafish Tlr4 co-receptor Md-2</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1101/817528</t>
+  </si>
+  <si>
+    <t>Loes AN, Hinman MN, Farnsworth DR, Miler AC, Guillemin K, Harms MJ</t>
+  </si>
+  <si>
+    <t>Inferring a complete genotype-phenotype map from a small number of measured phenotypes</t>
+  </si>
+  <si>
+    <t>Sailer ZS, Shafik SH, Summers RL, Joul A, Patterson-Robert A, Martin RE, Harms MJ</t>
+  </si>
+  <si>
+    <t>Evolution of multifunctionality through a pleiotropic substitution in the innate immune protein S100A9</t>
+  </si>
+  <si>
+    <t>Harman JL, Loes AN, Warren GD, Heaphy MC, Lampi KJ, Harms MJ</t>
+  </si>
+  <si>
+    <t>published</t>
+  </si>
+  <si>
+    <t>eLife</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:e54100 </t>
+  </si>
+  <si>
+    <t>https://elifesciences.org/articles/54100</t>
+  </si>
+  <si>
+    <t>Anderson JA, Loes AN, Shi R, Waddell GL, Harms MJ</t>
+  </si>
+  <si>
+    <t>Tracing the evolution of novel features of human Toll-like receptor 4</t>
+  </si>
+  <si>
+    <t>Protein Science</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>28(7):1350-1358</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/pro.3644</t>
+  </si>
+  <si>
+    <t>pytc: open source python software for global analyses of isothermal titration calorimetry data</t>
+  </si>
+  <si>
+    <t>Duvuuri H, Wheeler LW, Harms MJ</t>
+  </si>
+  <si>
+    <t>57(18):2578–2583</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/doi/10.1021/acs.biochem.7b01264</t>
+  </si>
+  <si>
+    <t>Coevolution of the Toll-Like Receptor 4 complex with calgranulins and lipopolysaccharide</t>
+  </si>
+  <si>
+    <t>Loes AN, Bridgham JT, Harms MJ</t>
+  </si>
+  <si>
+    <t>Frontiers in Immunology</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fimmu.2018.00304</t>
+  </si>
+  <si>
+    <t>Conservation of specificity in two low-specificity proteins</t>
+  </si>
+  <si>
+    <t>57(5):684-695</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/doi/10.1021/acs.biochem.7b01086</t>
+  </si>
+  <si>
+    <t>Ca2+ and Cu2+ bind independently to human S100A5</t>
+  </si>
+  <si>
+    <t>BMC Biophysics</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s13628-017-0040-y</t>
+  </si>
+  <si>
+    <t>Wheeler LW, Harms MJ</t>
+  </si>
+  <si>
+    <t>Molecular ensembles make evolution unpredictable</t>
+  </si>
+  <si>
+    <t>Sailer ZS, Harms MJ</t>
+  </si>
+  <si>
+    <t>PNAS</t>
+  </si>
+  <si>
+    <t>114(45):11938-11943</t>
+  </si>
+  <si>
+    <t>https://www.pnas.org/content/114/45/11938</t>
+  </si>
+  <si>
+    <t>10:8</t>
+  </si>
+  <si>
+    <t>High-order epistasis shapes evolutionary trajectories</t>
+  </si>
+  <si>
+    <t>PLOS Computational Biology</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pcbi.1005541</t>
+  </si>
+  <si>
+    <t>Detecting high-order epistasis in nonlinear genotype-phenotype maps</t>
+  </si>
+  <si>
+    <t>Genetics</t>
+  </si>
+  <si>
+    <t>205(3):1079-1088</t>
+  </si>
+  <si>
+    <t>https://www.genetics.org/content/205/3/1079</t>
+  </si>
+  <si>
+    <t>Multiple evolutionary origins of ubiquitous Cu2+ and Zn2+ binding in the S100 protein family</t>
+  </si>
+  <si>
+    <t>Wheeler LW, Donor M, Prell JS, Harms MJ</t>
+  </si>
+  <si>
+    <t>PLOS ONE</t>
+  </si>
+  <si>
+    <t>11(10): e0164740</t>
+  </si>
+  <si>
+    <t>https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0164740</t>
+  </si>
+  <si>
+    <t>Following the folding trajectory of RNases H over evolutionary time: a trend towards kinetic stability</t>
+  </si>
+  <si>
+    <t>Li SM, Hart KM, Harms MJ, Marqusee S</t>
+  </si>
+  <si>
+    <t>113(46):13045-13050</t>
+  </si>
+  <si>
+    <t>https://www.pnas.org/content/113/46/13045.short</t>
+  </si>
+  <si>
+    <t>Enzymes emerge by upcycling [News &amp; Views]</t>
+  </si>
+  <si>
+    <t>Nature Chemical Biology</t>
+  </si>
+  <si>
+    <t>14:526-527</t>
+  </si>
+  <si>
+    <t>Harms MJ</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41589-018-0064-x</t>
+  </si>
+  <si>
+    <t>Wheeler LW, Li SM, Marqusee S, Harms MJ</t>
+  </si>
+  <si>
+    <t>Ancient protein thermostability and specificity [Invited Review]</t>
+  </si>
+  <si>
+    <t>Current Opinions in Structural Biology</t>
+  </si>
+  <si>
+    <t>38:37-43</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/abs/pii/S0959440X16300501</t>
+  </si>
+  <si>
+    <t>Eick GN, Bridgham JT, Anderson DP, Harms MJ, Thornton JM</t>
+  </si>
+  <si>
+    <t>Robustness of reconstructed ancestral protein functions to statistical uncertainty</t>
+  </si>
+  <si>
+    <t>Molecular Biology and Evolution</t>
+  </si>
+  <si>
+    <t>34 (2):247-261</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/mbe/article/34/2/247/2449965</t>
+  </si>
+  <si>
+    <t>Hart KM, Harms MJ, Schmidt BH, Thornton JW, Marqusee S</t>
+  </si>
+  <si>
+    <t>Thermodynamic system drift in the evolution of protein thermostability</t>
+  </si>
+  <si>
+    <t>12(11):e1001994</t>
+  </si>
+  <si>
+    <t>PLOS Biology</t>
+  </si>
+  <si>
+    <t>second review</t>
+  </si>
+  <si>
+    <t>Biophysical basis for historical contingency in glucocorticoid receptor evolution</t>
+  </si>
+  <si>
+    <t>Harms MJ, Thornton JW</t>
+  </si>
+  <si>
+    <t>Nature</t>
+  </si>
+  <si>
+    <t>512:203-207</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/nature13410</t>
+  </si>
+  <si>
+    <t>https://www.pnas.org/content/110/28/11475</t>
+  </si>
+  <si>
+    <t>110(28):11475-11480</t>
+  </si>
+  <si>
+    <t>Harms MJ, Eick GN, Colucci J, Ortlund EA, Thornton JW</t>
+  </si>
+  <si>
+    <t>Biophysical mechanisms for large-effect mutations in the evolution of steroid hormone receptors</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pbio.1001994</t>
+  </si>
+  <si>
+    <t>Evolutionary biochemistry: Revealing the historical and physical causes of protein function</t>
+  </si>
+  <si>
+    <t>Nature Reviews Genetics</t>
+  </si>
+  <si>
+    <t>14(8):559-571</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/nrg3540</t>
+  </si>
+  <si>
+    <t>Resurrection of an Urbilaterian U1A/U2B''/SNF protein</t>
+  </si>
+  <si>
+    <t>Williams SG, Harms MJ, Hall KB</t>
+  </si>
+  <si>
+    <t>Journal of Molecular Biology</t>
+  </si>
+  <si>
+    <t>425(20):3846–3862</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jmb.2013.05.031</t>
+  </si>
+  <si>
+    <t>Evolution of minimal specificity in the steroid receptors</t>
+  </si>
+  <si>
+    <t>PLOS Genetics</t>
+  </si>
+  <si>
+    <t>8(11):e1003072</t>
+  </si>
+  <si>
+    <t>Eick GN, Colucci J, Harms MJ, Ortlund EA, Thornton JW</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pgen.1003072</t>
+  </si>
+  <si>
+    <t>Harms MJ, Schlessman JL, Sue GR, García-Moreno E. B.</t>
+  </si>
+  <si>
+    <t>Arginine is ionized at internal positions in a protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108(47):18954-9 </t>
+  </si>
+  <si>
+    <t>Protein evolution by molecular tinkering: diversification of the nuclear receptor superfamily from a ligand-dependent ancestor</t>
+  </si>
+  <si>
+    <t>Bridgham JT, Eick G, Larroux C, Deshpande K, Harms MJ, Gauthier MEA, Ortlund EA, Degnan BM, Thornton JW</t>
+  </si>
+  <si>
+    <t>8(10):e1000497</t>
+  </si>
+  <si>
+    <t>Analyzing protein structure and function using ancestral gene reconstruction</t>
+  </si>
+  <si>
+    <t>20(3):360-366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harms MJ, Castañeda CA, Schlessman JL, Sue GR, Isom DG, Cannon BR, García-Moreno E. B. </t>
+  </si>
+  <si>
+    <t>The pKa values of acidic and basic residues buried at the same internal location in a protein are governed by different factors</t>
+  </si>
+  <si>
+    <t>389:34-47</t>
+  </si>
+  <si>
+    <t>Harms MJ, Schlessman JL, Chimenti MS, Sue GR, Damjanovic A, García-Moreno E. B.</t>
+  </si>
+  <si>
+    <t>A buried lysine that titrates with a normal pKa: Role of conformational flexibility at the protein–water interface as a determinant of pKa values</t>
+  </si>
+  <si>
+    <t>17:833-845</t>
+  </si>
+  <si>
+    <t>Hays FA, Teegarden A, Jones ZJR, Harms MJ, Raup D, Watson F, Cavaliere E, Ho PS</t>
+  </si>
+  <si>
+    <t>How sequence defines structure: a crystallographic map of DNA structure and conformation</t>
+  </si>
+  <si>
+    <t>102(20):7157-7162</t>
+  </si>
+  <si>
+    <t>Harms MJ, Wilmarth PA, Kapfer DM, Steel EA, David LL, Bachinger HP, Lampi KJ</t>
+  </si>
+  <si>
+    <t>Laser light-scattering evidence for an altered association of βB1-crystallin deamidated in the connecting peptide</t>
+  </si>
+  <si>
+    <t>13:678-686</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1073/pnas.1104808108</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pbio.1000497</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.sbi.2010.03.005</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jmb.2009.03.039</t>
+  </si>
+  <si>
+    <t>https://dx.doi.org/10.1110%2Fps.073397708</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1073/pnas.0409455102</t>
+  </si>
+  <si>
+    <t>https://dx.doi.org/10.1110%2Fps.03427504</t>
+  </si>
+  <si>
+    <t>Wheeler LW, Anderson JA, Morrison AJ, Wong CE, Harms MJ</t>
+  </si>
+  <si>
+    <t>first review</t>
+  </si>
+  <si>
+    <t>first revision</t>
+  </si>
+  <si>
+    <t>in press</t>
+  </si>
+  <si>
+    <t>Postdoc</t>
+  </si>
+  <si>
+    <t>projects.html#evolution-of-innate-immune-proteins</t>
+  </si>
+  <si>
+    <t>projects.html#evolution-of-specificity</t>
+  </si>
+  <si>
+    <t>projects.html#open-source-software</t>
+  </si>
+  <si>
+    <t>teaching.html</t>
   </si>
 </sst>
 </file>
@@ -556,12 +1099,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -876,11 +1423,803 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC076B7-4CEB-C143-9E7B-9F55AFCD75D9}">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="106.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D2">
+        <v>2003</v>
+      </c>
+      <c r="E2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D3">
+        <v>2005</v>
+      </c>
+      <c r="E3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F3" t="s">
+        <v>317</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D4">
+        <v>2008</v>
+      </c>
+      <c r="E4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F4" t="s">
+        <v>314</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D5">
+        <v>2009</v>
+      </c>
+      <c r="E5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" t="s">
+        <v>307</v>
+      </c>
+      <c r="D6">
+        <v>2010</v>
+      </c>
+      <c r="E6" t="s">
+        <v>264</v>
+      </c>
+      <c r="F6" t="s">
+        <v>308</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C7" t="s">
+        <v>304</v>
+      </c>
+      <c r="D7">
+        <v>2010</v>
+      </c>
+      <c r="E7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B8" t="s">
+        <v>301</v>
+      </c>
+      <c r="C8" t="s">
+        <v>302</v>
+      </c>
+      <c r="D8">
+        <v>2011</v>
+      </c>
+      <c r="E8" t="s">
+        <v>237</v>
+      </c>
+      <c r="F8" t="s">
+        <v>303</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C9" t="s">
+        <v>296</v>
+      </c>
+      <c r="D9">
+        <v>2012</v>
+      </c>
+      <c r="E9" t="s">
+        <v>297</v>
+      </c>
+      <c r="F9" t="s">
+        <v>298</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C10" t="s">
+        <v>291</v>
+      </c>
+      <c r="D10">
+        <v>2013</v>
+      </c>
+      <c r="E10" t="s">
+        <v>293</v>
+      </c>
+      <c r="F10" t="s">
+        <v>294</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>210</v>
+      </c>
+      <c r="B11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C11" t="s">
+        <v>287</v>
+      </c>
+      <c r="D11">
+        <v>2013</v>
+      </c>
+      <c r="E11" t="s">
+        <v>288</v>
+      </c>
+      <c r="F11" t="s">
+        <v>289</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B12" t="s">
+        <v>284</v>
+      </c>
+      <c r="C12" t="s">
+        <v>285</v>
+      </c>
+      <c r="D12">
+        <v>2013</v>
+      </c>
+      <c r="E12" t="s">
+        <v>237</v>
+      </c>
+      <c r="F12" t="s">
+        <v>283</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B13" t="s">
+        <v>278</v>
+      </c>
+      <c r="C13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D13">
+        <v>2014</v>
+      </c>
+      <c r="E13" t="s">
+        <v>279</v>
+      </c>
+      <c r="F13" t="s">
+        <v>280</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>210</v>
+      </c>
+      <c r="B14" t="s">
+        <v>272</v>
+      </c>
+      <c r="C14" t="s">
+        <v>273</v>
+      </c>
+      <c r="D14">
+        <v>2014</v>
+      </c>
+      <c r="E14" t="s">
+        <v>275</v>
+      </c>
+      <c r="F14" t="s">
+        <v>274</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B15" t="s">
+        <v>262</v>
+      </c>
+      <c r="C15" t="s">
+        <v>263</v>
+      </c>
+      <c r="D15">
+        <v>2016</v>
+      </c>
+      <c r="E15" t="s">
+        <v>264</v>
+      </c>
+      <c r="F15" t="s">
+        <v>265</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>210</v>
+      </c>
+      <c r="B16" t="s">
+        <v>254</v>
+      </c>
+      <c r="C16" t="s">
+        <v>253</v>
+      </c>
+      <c r="D16">
+        <v>2016</v>
+      </c>
+      <c r="E16" t="s">
+        <v>237</v>
+      </c>
+      <c r="F16" t="s">
+        <v>255</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>210</v>
+      </c>
+      <c r="B17" t="s">
+        <v>249</v>
+      </c>
+      <c r="C17" t="s">
+        <v>248</v>
+      </c>
+      <c r="D17">
+        <v>2016</v>
+      </c>
+      <c r="E17" t="s">
+        <v>250</v>
+      </c>
+      <c r="F17" t="s">
+        <v>251</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>210</v>
+      </c>
+      <c r="B18" t="s">
+        <v>267</v>
+      </c>
+      <c r="C18" t="s">
+        <v>268</v>
+      </c>
+      <c r="D18">
+        <v>2017</v>
+      </c>
+      <c r="E18" t="s">
+        <v>269</v>
+      </c>
+      <c r="F18" t="s">
+        <v>270</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>210</v>
+      </c>
+      <c r="B19" t="s">
+        <v>236</v>
+      </c>
+      <c r="C19" t="s">
+        <v>244</v>
+      </c>
+      <c r="D19">
+        <v>2017</v>
+      </c>
+      <c r="E19" t="s">
+        <v>245</v>
+      </c>
+      <c r="F19" t="s">
+        <v>246</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>210</v>
+      </c>
+      <c r="B20" t="s">
+        <v>236</v>
+      </c>
+      <c r="C20" t="s">
+        <v>241</v>
+      </c>
+      <c r="D20">
+        <v>2017</v>
+      </c>
+      <c r="E20" t="s">
+        <v>242</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>210</v>
+      </c>
+      <c r="B21" t="s">
+        <v>236</v>
+      </c>
+      <c r="C21" t="s">
+        <v>235</v>
+      </c>
+      <c r="D21">
+        <v>2017</v>
+      </c>
+      <c r="E21" t="s">
+        <v>237</v>
+      </c>
+      <c r="F21" t="s">
+        <v>238</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>210</v>
+      </c>
+      <c r="B22" t="s">
+        <v>234</v>
+      </c>
+      <c r="C22" t="s">
+        <v>231</v>
+      </c>
+      <c r="D22">
+        <v>2017</v>
+      </c>
+      <c r="E22" t="s">
+        <v>232</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>210</v>
+      </c>
+      <c r="B23" t="s">
+        <v>260</v>
+      </c>
+      <c r="C23" t="s">
+        <v>257</v>
+      </c>
+      <c r="D23">
+        <v>2018</v>
+      </c>
+      <c r="E23" t="s">
+        <v>258</v>
+      </c>
+      <c r="F23" t="s">
+        <v>259</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>210</v>
+      </c>
+      <c r="B24" t="s">
+        <v>328</v>
+      </c>
+      <c r="C24" t="s">
+        <v>228</v>
+      </c>
+      <c r="D24">
+        <v>2018</v>
+      </c>
+      <c r="E24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" t="s">
+        <v>229</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>210</v>
+      </c>
+      <c r="B25" t="s">
+        <v>225</v>
+      </c>
+      <c r="C25" t="s">
+        <v>224</v>
+      </c>
+      <c r="D25">
+        <v>2018</v>
+      </c>
+      <c r="E25" t="s">
+        <v>226</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>210</v>
+      </c>
+      <c r="B26" t="s">
+        <v>221</v>
+      </c>
+      <c r="C26" t="s">
+        <v>220</v>
+      </c>
+      <c r="D26">
+        <v>2018</v>
+      </c>
+      <c r="E26" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" t="s">
+        <v>222</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>210</v>
+      </c>
+      <c r="B27" t="s">
+        <v>214</v>
+      </c>
+      <c r="C27" t="s">
+        <v>215</v>
+      </c>
+      <c r="D27">
+        <v>2019</v>
+      </c>
+      <c r="E27" t="s">
+        <v>216</v>
+      </c>
+      <c r="F27" t="s">
+        <v>218</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>210</v>
+      </c>
+      <c r="B28" t="s">
+        <v>209</v>
+      </c>
+      <c r="C28" t="s">
+        <v>208</v>
+      </c>
+      <c r="D28">
+        <v>2020</v>
+      </c>
+      <c r="E28" t="s">
+        <v>211</v>
+      </c>
+      <c r="F28" t="s">
+        <v>212</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>331</v>
+      </c>
+      <c r="B29" t="s">
+        <v>207</v>
+      </c>
+      <c r="C29" t="s">
+        <v>206</v>
+      </c>
+      <c r="D29">
+        <v>2020</v>
+      </c>
+      <c r="E29" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>276</v>
+      </c>
+      <c r="B30" t="s">
+        <v>205</v>
+      </c>
+      <c r="C30" t="s">
+        <v>203</v>
+      </c>
+      <c r="D30">
+        <v>2019</v>
+      </c>
+      <c r="E30" t="s">
+        <v>194</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>329</v>
+      </c>
+      <c r="B31" t="s">
+        <v>200</v>
+      </c>
+      <c r="C31" t="s">
+        <v>198</v>
+      </c>
+      <c r="D31">
+        <v>2019</v>
+      </c>
+      <c r="E31" t="s">
+        <v>194</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>276</v>
+      </c>
+      <c r="B32" t="s">
+        <v>199</v>
+      </c>
+      <c r="C32" t="s">
+        <v>201</v>
+      </c>
+      <c r="D32">
+        <v>2020</v>
+      </c>
+      <c r="E32" t="s">
+        <v>194</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>330</v>
+      </c>
+      <c r="B33" t="s">
+        <v>191</v>
+      </c>
+      <c r="C33" t="s">
+        <v>192</v>
+      </c>
+      <c r="D33">
+        <v>2020</v>
+      </c>
+      <c r="E33" t="s">
+        <v>194</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G33" r:id="rId1" xr:uid="{68DDD81A-3CE6-4D48-B07B-3FA587DAA0EF}"/>
+    <hyperlink ref="G31" r:id="rId2" xr:uid="{AAE2C6FC-A8EF-3742-BF8C-3E5E3CB56003}"/>
+    <hyperlink ref="G32" r:id="rId3" xr:uid="{E8315D43-9C51-F74C-9DDE-FD29E8937FA9}"/>
+    <hyperlink ref="G30" r:id="rId4" xr:uid="{B141FD81-723B-714C-B729-8B9994B01FAA}"/>
+    <hyperlink ref="G28" r:id="rId5" xr:uid="{45942973-9C5B-5C49-8E0E-73A2BAA4D28E}"/>
+    <hyperlink ref="G27" r:id="rId6" xr:uid="{54AFFC4F-02C1-A147-B9BB-2C12B999CD3F}"/>
+    <hyperlink ref="G26" r:id="rId7" xr:uid="{9E24C7C4-EA59-E840-AD41-8AA490E9807A}"/>
+    <hyperlink ref="G25" r:id="rId8" xr:uid="{2A138BC8-6371-F449-AAD6-3853D57719F5}"/>
+    <hyperlink ref="G24" r:id="rId9" xr:uid="{10388BC7-F90B-7F4B-834C-57C020FB1E87}"/>
+    <hyperlink ref="G22" r:id="rId10" xr:uid="{CDAF39F0-7855-B94A-ADB3-736C0F00C272}"/>
+    <hyperlink ref="G21" r:id="rId11" xr:uid="{359B8240-E550-984D-AE54-20C94C296A73}"/>
+    <hyperlink ref="G20" r:id="rId12" xr:uid="{72D870C2-9231-CB49-B028-108FC14CFBA6}"/>
+    <hyperlink ref="G19" r:id="rId13" xr:uid="{ED7CD363-EC05-5F41-8F5F-C76C76C11D0F}"/>
+    <hyperlink ref="G17" r:id="rId14" xr:uid="{F8AA907C-D007-E247-B212-7A124A587256}"/>
+    <hyperlink ref="G16" r:id="rId15" xr:uid="{2EE538B5-1D5F-4B47-865D-B41E619EED88}"/>
+    <hyperlink ref="G23" r:id="rId16" xr:uid="{8D327EC1-9629-ED4B-9861-80C8005C1BC9}"/>
+    <hyperlink ref="G15" r:id="rId17" xr:uid="{F194B9BB-D1F2-C04F-B334-F957C7FE214D}"/>
+    <hyperlink ref="G18" r:id="rId18" xr:uid="{6B4D3FC6-CBBB-264C-8159-2709E11863C4}"/>
+    <hyperlink ref="G13" r:id="rId19" xr:uid="{ED668A75-FE8E-994B-BEA7-F052AFB8C0EA}"/>
+    <hyperlink ref="G12" r:id="rId20" xr:uid="{68945279-32B0-8B4C-9D2C-4F919AC39821}"/>
+    <hyperlink ref="G14" r:id="rId21" xr:uid="{8F70E081-6CFE-9442-9E37-9C8E066B4280}"/>
+    <hyperlink ref="G11" r:id="rId22" xr:uid="{2ACD1F8A-6AB7-534F-89B7-860497644A90}"/>
+    <hyperlink ref="G10" r:id="rId23" xr:uid="{02DFDAD8-3078-1342-AE1C-7599CC96ADB5}"/>
+    <hyperlink ref="G9" r:id="rId24" xr:uid="{03292DF2-01B0-0547-AFBF-4DCFC68BCA43}"/>
+    <hyperlink ref="G8" r:id="rId25" xr:uid="{4426C169-4546-6D44-8A56-1F7DFE740E9F}"/>
+    <hyperlink ref="G7" r:id="rId26" xr:uid="{4CA84CFC-00FC-614F-968F-9F17BC5B131E}"/>
+    <hyperlink ref="G6" r:id="rId27" xr:uid="{75EE9926-88DC-6B42-A2D5-C29D7EC355E2}"/>
+    <hyperlink ref="G5" r:id="rId28" xr:uid="{50D3D1D4-C79E-7343-83E7-360080F804D1}"/>
+    <hyperlink ref="G4" r:id="rId29" xr:uid="{4E06EB98-A16A-5440-B604-68B41286E37E}"/>
+    <hyperlink ref="G3" r:id="rId30" xr:uid="{79FA9F8C-B50B-9A45-AB12-7B8902450FEE}"/>
+    <hyperlink ref="G2" r:id="rId31" xr:uid="{6E3F39B4-F9C2-2E49-A744-DE4788D59A56}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A604AB1-DDFC-4B40-85A4-D0BC5335EE4C}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -925,7 +2264,7 @@
         <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -942,7 +2281,7 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>23</v>
@@ -965,15 +2304,15 @@
         <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I3" s="2"/>
     </row>
@@ -991,7 +2330,7 @@
         <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>29</v>
@@ -1011,7 +2350,7 @@
         <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>34</v>
@@ -1031,13 +2370,13 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1045,25 +2384,25 @@
         <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1077,13 +2416,13 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1091,16 +2430,16 @@
         <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1111,13 +2450,13 @@
         <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1131,19 +2470,19 @@
         <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1160,7 +2499,7 @@
         <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1177,7 +2516,7 @@
         <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1185,19 +2524,19 @@
         <v>42</v>
       </c>
       <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
         <v>52</v>
-      </c>
-      <c r="C14" t="s">
-        <v>53</v>
       </c>
       <c r="D14" t="s">
         <v>47</v>
       </c>
       <c r="E14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1208,19 +2547,19 @@
         <v>49</v>
       </c>
       <c r="C15" t="s">
+        <v>332</v>
+      </c>
+      <c r="D15" t="s">
         <v>50</v>
       </c>
-      <c r="D15" t="s">
-        <v>51</v>
-      </c>
       <c r="E15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" t="s">
         <v>100</v>
-      </c>
-      <c r="G15" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1228,16 +2567,16 @@
         <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
         <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1245,13 +2584,13 @@
         <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1259,16 +2598,16 @@
         <v>42</v>
       </c>
       <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
         <v>57</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>58</v>
       </c>
-      <c r="D18" t="s">
-        <v>59</v>
-      </c>
       <c r="E18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1276,25 +2615,25 @@
         <v>42</v>
       </c>
       <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" t="s">
         <v>60</v>
       </c>
-      <c r="C19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" t="s">
-        <v>61</v>
-      </c>
       <c r="E19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F19" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" t="s">
         <v>102</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>103</v>
-      </c>
-      <c r="H19" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1302,19 +2641,19 @@
         <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
         <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1322,22 +2661,22 @@
         <v>42</v>
       </c>
       <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
         <v>63</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>64</v>
       </c>
-      <c r="D21" t="s">
-        <v>65</v>
-      </c>
       <c r="E21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1345,7 +2684,7 @@
         <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
         <v>46</v>
@@ -1354,7 +2693,7 @@
         <v>47</v>
       </c>
       <c r="E22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1362,16 +2701,16 @@
         <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
         <v>46</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1379,7 +2718,7 @@
         <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
         <v>46</v>
@@ -1388,13 +2727,13 @@
         <v>47</v>
       </c>
       <c r="E24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F24" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" t="s">
         <v>108</v>
-      </c>
-      <c r="G24" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1402,16 +2741,16 @@
         <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
         <v>46</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1419,16 +2758,16 @@
         <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
         <v>46</v>
       </c>
       <c r="E26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1453,12 +2792,282 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03DD845D-47E5-1E42-A12B-67B3BEB52BF9}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="34.33203125" customWidth="1"/>
+    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3542A6-E913-9542-A96C-9442386D9751}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="134.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D8" r:id="rId1" xr:uid="{F5F81F00-4A48-B44A-BD52-88612B94C26E}"/>
+    <hyperlink ref="D9" r:id="rId2" xr:uid="{ACB08C35-1135-A544-B65E-D933BD64AD2A}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{F31A85CF-9331-FE4D-B671-01B66321E979}"/>
+    <hyperlink ref="D3" r:id="rId4" xr:uid="{AF2C5B58-BC33-184F-AE7A-D4EAAAB1B3E3}"/>
+    <hyperlink ref="D4" r:id="rId5" xr:uid="{3867D2A3-A0CA-014C-A7ED-BD6445E778F1}"/>
+    <hyperlink ref="D5" r:id="rId6" xr:uid="{AFBACD63-4631-8344-86F4-BE79CAC496BC}"/>
+    <hyperlink ref="D6" r:id="rId7" xr:uid="{B60A3D76-9330-234B-8E3B-C21AA5A087BA}"/>
+    <hyperlink ref="D7" r:id="rId8" xr:uid="{B6855282-A237-EE4D-9F63-3879B8BD555D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D72B0B-0937-4247-A733-A86715609C32}">
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1470,13 +3079,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" t="s">
         <v>114</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>115</v>
-      </c>
-      <c r="C1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1507,7 +3116,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1518,7 +3127,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1526,7 +3135,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1534,7 +3143,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1574,7 +3183,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1585,7 +3194,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1596,7 +3205,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1607,7 +3216,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1615,7 +3224,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1623,7 +3232,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1639,10 +3248,10 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" t="s">
         <v>83</v>
-      </c>
-      <c r="C18" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1650,7 +3259,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1658,10 +3267,10 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1669,10 +3278,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1680,10 +3289,10 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1691,10 +3300,10 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1702,7 +3311,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1710,7 +3319,7 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1731,10 +3340,10 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" t="s">
         <v>95</v>
-      </c>
-      <c r="C28" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/source/pages.xlsx
+++ b/source/pages.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harmsm/work/admin/website/github/website/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679369C7-C4B2-634D-829D-D0B47F9D7DFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E91007-B740-A14B-8FF4-70236A08F548}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42420" yWindow="-1180" windowWidth="24540" windowHeight="17540" activeTab="2" xr2:uid="{A8B7147D-77A5-1347-9728-F2522D06E352}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{A8B7147D-77A5-1347-9728-F2522D06E352}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="5" r:id="rId1"/>
     <sheet name="people" sheetId="2" r:id="rId2"/>
     <sheet name="projects" sheetId="3" r:id="rId3"/>
     <sheet name="funding" sheetId="4" r:id="rId4"/>
-    <sheet name="projects_x" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,47 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="337">
-  <si>
-    <t>Sequence space</t>
-  </si>
-  <si>
-    <t>![sequence space](img/seq_space.png)</t>
-  </si>
-  <si>
-    <t>An evolving protein must traverse sequence space</t>
-  </si>
-  <si>
-    <t>Epistasis (when mutations interact with one another) changes which pathways are accessible.</t>
-  </si>
-  <si>
-    <t>We found that...</t>
-  </si>
-  <si>
-    <t>Current projects</t>
-  </si>
-  <si>
-    <t>Can we use the signal from epistasis to dissect the biophysics of these maps?</t>
-  </si>
-  <si>
-    <t>Can we predict phenotypes given information from a small number of genotypes?</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="301">
   <si>
     <t>Evolution of innate immune proteins</t>
   </si>
   <si>
-    <t>The innate immune system consists of multiple, interacting parts.</t>
-  </si>
-  <si>
-    <t>img/tlr4.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + How did each of these parts evolve their functions in innate immunity?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + How does S100A9 activate TLR4?</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -255,78 +218,6 @@
     <t>Jaclyn Smith</t>
   </si>
   <si>
-    <t>We found that…</t>
-  </si>
-  <si>
-    <t>(... high-order epistasis shapes evolutionary trajectories.)[http://journals.plos.org/ploscompbiol/article?rev=2&amp;id=10.1371/journal.pcbi.1005541]</t>
-  </si>
-  <si>
-    <t>(..."high-order" epistasis (multi-way interactions between mutations) are ubiquitous in experimental sequence spaces.)[http://www.genetics.org/content/205/3/1079]</t>
-  </si>
-  <si>
-    <t>(... high-order epistasis is a natural consequence of the thermodynamic ensemble populated by proteins.)[http://www.pnas.org/content/114/45/11938.short]</t>
-  </si>
-  <si>
-    <t>(... useful epistatic coefficients cannot be resolved from sequence spaces using linear models.)[https://www.biorxiv.org/content/early/2018/07/27/378489]</t>
-  </si>
-  <si>
-    <t>(...S100A9 evolved multifunctionality through a pleiotropic substitution.)[https://elifesciences.org/articles/54100]</t>
-  </si>
-  <si>
-    <t>(... S100A9 activates TLR4 in a Zn(II)-independent fashion.)[https://www.biorxiv.org/content/10.1101/796219v1]</t>
-  </si>
-  <si>
-    <t>(... TLR4 evolved in the ancestor of bony vertebrates.  Zebrafish TLR4 responds to the same signals that activate human TLR4.)[https://www.biorxiv.org/content/10.1101/817528v1]</t>
-  </si>
-  <si>
-    <t>(... the human TLR4/MD-2 complex has--since the human-mouse ancestor--evolved new specificity for pro-inflammatory signals.)[https://onlinelibrary.wiley.com/doi/full/10.1002/pro.3644]</t>
-  </si>
-  <si>
-    <t>(... an early calgranulin evolved in the amniote ancestor interacts non-specifically with TLR4.)[https://www.frontiersin.org/articles/10.3389/fimmu.2018.00304/full]</t>
-  </si>
-  <si>
-    <t>What is the mechanism by which calgranulins activate TLR4?</t>
-  </si>
-  <si>
-    <t>How did the calprotectin heterodimer evolve from an ancestral homodimer?</t>
-  </si>
-  <si>
-    <t>Evolution of specificity</t>
-  </si>
-  <si>
-    <t>S100 proteins are small signaling proteins</t>
-  </si>
-  <si>
-    <t>They bind to metals and downstream peptide regions of protein targets</t>
-  </si>
-  <si>
-    <t>How did the metal and peptide binding specificity of these target proteins evolve?</t>
-  </si>
-  <si>
-    <t>img/s100</t>
-  </si>
-  <si>
-    <t>(...transition metal binding is a conserved feature, shared by most S100 proteins, but the residues in the binding site are highly labile.)[]</t>
-  </si>
-  <si>
-    <t>(...S100 proteins evolved in the ancestor of animals with spinal cords.)[]</t>
-  </si>
-  <si>
-    <t>(...although S100A5 and S100A6 bind to an extraordinary variety of target peptides, this set of targets has been conserved for 320 million years.)[]</t>
-  </si>
-  <si>
-    <t>(...ancestral proteins may not be generally less specific than modern proteins.)[https://www.biorxiv.org/content/10.1101/2020.05.27.120261v1]</t>
-  </si>
-  <si>
-    <t>(…we can use machine learning to determine binding "rules" for low-specificity proteins)[https://www.biorxiv.org/content/10.1101/2020.06.02.131086v1]</t>
-  </si>
-  <si>
-    <t>Define the set of biological targets for S100A5 and S100A6.</t>
-  </si>
-  <si>
-    <t>What are the chemical "rules" that these low-specificity proteins use to discriminate targets?</t>
-  </si>
-  <si>
     <t>Visiting Masters Student</t>
   </si>
   <si>
@@ -378,15 +269,6 @@
     <t>Experimental studies of biophysical basis of high-order epistasis</t>
   </si>
   <si>
-    <t>project</t>
-  </si>
-  <si>
-    <t>row1</t>
-  </si>
-  <si>
-    <t>row2</t>
-  </si>
-  <si>
     <t>anderson_circle_150x150.png</t>
   </si>
   <si>
@@ -1048,6 +930,15 @@
   </si>
   <si>
     <t>teaching.html</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1101/2020.08.30.274340</t>
+  </si>
+  <si>
+    <t>Nixon CF, Lim SA, Sailer ZR, Zheludev IN, Gee CL, Kelch BA, Harms MJ, Marqusee S</t>
+  </si>
+  <si>
+    <t>Exploring the evolutionary history of kinetic stability in the alpha-lytic protease family</t>
   </si>
 </sst>
 </file>
@@ -1099,11 +990,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1424,10 +1313,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC076B7-4CEB-C143-9E7B-9F55AFCD75D9}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1443,737 +1332,757 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c r="E1" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="F1" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="G1" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="B2" t="s">
-        <v>318</v>
+        <v>279</v>
       </c>
       <c r="C2" t="s">
-        <v>319</v>
+        <v>280</v>
       </c>
       <c r="D2">
         <v>2003</v>
       </c>
       <c r="E2" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="F2" t="s">
-        <v>320</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>327</v>
+        <v>281</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="B3" t="s">
-        <v>315</v>
+        <v>276</v>
       </c>
       <c r="C3" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="D3">
         <v>2005</v>
       </c>
       <c r="E3" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="F3" t="s">
-        <v>317</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>326</v>
+        <v>278</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="B4" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
       <c r="C4" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="D4">
         <v>2008</v>
       </c>
       <c r="E4" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="F4" t="s">
-        <v>314</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>325</v>
+        <v>275</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="B5" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="C5" t="s">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="D5">
         <v>2009</v>
       </c>
       <c r="E5" t="s">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="F5" t="s">
-        <v>311</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>324</v>
+        <v>272</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="B6" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="C6" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
       <c r="D6">
         <v>2010</v>
       </c>
       <c r="E6" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="F6" t="s">
-        <v>308</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>323</v>
+        <v>269</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="B7" t="s">
-        <v>305</v>
+        <v>266</v>
       </c>
       <c r="C7" t="s">
-        <v>304</v>
+        <v>265</v>
       </c>
       <c r="D7">
         <v>2010</v>
       </c>
       <c r="E7" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="F7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>322</v>
+        <v>267</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="B8" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="C8" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
       <c r="D8">
         <v>2011</v>
       </c>
       <c r="E8" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="F8" t="s">
-        <v>303</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>321</v>
+        <v>264</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="B9" t="s">
-        <v>299</v>
+        <v>260</v>
       </c>
       <c r="C9" t="s">
-        <v>296</v>
+        <v>257</v>
       </c>
       <c r="D9">
         <v>2012</v>
       </c>
       <c r="E9" t="s">
-        <v>297</v>
+        <v>258</v>
       </c>
       <c r="F9" t="s">
-        <v>298</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>300</v>
+        <v>259</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="B10" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="C10" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="D10">
         <v>2013</v>
       </c>
       <c r="E10" t="s">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="F10" t="s">
-        <v>294</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>295</v>
+        <v>255</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="B11" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="C11" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="D11">
         <v>2013</v>
       </c>
       <c r="E11" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="F11" t="s">
-        <v>289</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>290</v>
+        <v>250</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="B12" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="C12" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="D12">
         <v>2013</v>
       </c>
       <c r="E12" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="F12" t="s">
-        <v>283</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>282</v>
+        <v>244</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="B13" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="C13" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="D13">
         <v>2014</v>
       </c>
       <c r="E13" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="F13" t="s">
-        <v>280</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>281</v>
+        <v>241</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="C14" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="D14">
         <v>2014</v>
       </c>
       <c r="E14" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="F14" t="s">
-        <v>274</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>286</v>
+        <v>235</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="C15" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="D15">
         <v>2016</v>
       </c>
       <c r="E15" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="F15" t="s">
-        <v>265</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>266</v>
+        <v>226</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="C16" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="D16">
         <v>2016</v>
       </c>
       <c r="E16" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="F16" t="s">
-        <v>255</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>256</v>
+        <v>216</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" t="s">
         <v>210</v>
       </c>
-      <c r="B17" t="s">
-        <v>249</v>
-      </c>
       <c r="C17" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="D17">
         <v>2016</v>
       </c>
       <c r="E17" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="F17" t="s">
-        <v>251</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>252</v>
+        <v>212</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="B18" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="C18" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="D18">
         <v>2017</v>
       </c>
       <c r="E18" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="F18" t="s">
-        <v>270</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>271</v>
+        <v>231</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="B19" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C19" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="F19" t="s">
-        <v>246</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>247</v>
+        <v>207</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="B20" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C20" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="D20">
         <v>2017</v>
       </c>
       <c r="E20" t="s">
-        <v>242</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>243</v>
+        <v>203</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="B21" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="C21" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="D21">
         <v>2017</v>
       </c>
       <c r="E21" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="F21" t="s">
-        <v>238</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>239</v>
+        <v>199</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="B22" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="C22" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="D22">
         <v>2017</v>
       </c>
       <c r="E22" t="s">
-        <v>232</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>233</v>
+        <v>193</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="B23" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="C23" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="D23">
         <v>2018</v>
       </c>
       <c r="E23" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="F23" t="s">
-        <v>259</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>261</v>
+        <v>220</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="B24" t="s">
-        <v>328</v>
+        <v>289</v>
       </c>
       <c r="C24" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="D24">
         <v>2018</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s">
-        <v>229</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>230</v>
+        <v>190</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="B25" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="C25" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="D25">
         <v>2018</v>
       </c>
       <c r="E25" t="s">
-        <v>226</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>227</v>
+        <v>187</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="B26" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
       <c r="C26" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="D26">
         <v>2018</v>
       </c>
       <c r="E26" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F26" t="s">
-        <v>222</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>223</v>
+        <v>183</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="B27" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="C27" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="D27">
         <v>2019</v>
       </c>
       <c r="E27" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="F27" t="s">
-        <v>218</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>219</v>
+        <v>179</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="B28" t="s">
-        <v>209</v>
+        <v>170</v>
       </c>
       <c r="C28" t="s">
-        <v>208</v>
+        <v>169</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c r="F28" t="s">
-        <v>212</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>213</v>
+        <v>173</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>331</v>
+        <v>292</v>
       </c>
       <c r="B29" t="s">
-        <v>207</v>
+        <v>168</v>
       </c>
       <c r="C29" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
       <c r="D29">
         <v>2020</v>
       </c>
       <c r="E29" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="B30" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="C30" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="D30">
         <v>2019</v>
       </c>
       <c r="E30" t="s">
-        <v>194</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>204</v>
+        <v>155</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>329</v>
+        <v>290</v>
       </c>
       <c r="B31" t="s">
-        <v>200</v>
+        <v>161</v>
       </c>
       <c r="C31" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="D31">
         <v>2019</v>
       </c>
       <c r="E31" t="s">
-        <v>194</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>197</v>
+        <v>155</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="B32" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="C32" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="D32">
         <v>2020</v>
       </c>
       <c r="E32" t="s">
-        <v>194</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>202</v>
+        <v>155</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>330</v>
+        <v>291</v>
       </c>
       <c r="B33" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="C33" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
       <c r="D33">
         <v>2020</v>
       </c>
       <c r="E33" t="s">
-        <v>194</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>196</v>
+        <v>155</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>290</v>
+      </c>
+      <c r="B34" t="s">
+        <v>299</v>
+      </c>
+      <c r="C34" t="s">
+        <v>300</v>
+      </c>
+      <c r="D34">
+        <v>2020</v>
+      </c>
+      <c r="E34" t="s">
+        <v>155</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -2209,6 +2118,7 @@
     <hyperlink ref="G4" r:id="rId29" xr:uid="{4E06EB98-A16A-5440-B604-68B41286E37E}"/>
     <hyperlink ref="G3" r:id="rId30" xr:uid="{79FA9F8C-B50B-9A45-AB12-7B8902450FEE}"/>
     <hyperlink ref="G2" r:id="rId31" xr:uid="{6E3F39B4-F9C2-2E49-A744-DE4788D59A56}"/>
+    <hyperlink ref="G34" r:id="rId32" xr:uid="{5524E091-EA10-5B42-AC63-A8D32A2E716B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2237,537 +2147,537 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" t="s">
-        <v>30</v>
-      </c>
       <c r="J1" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>78</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I3" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>29</v>
+        <v>79</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>120</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>34</v>
+        <v>81</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="E6" t="s">
-        <v>121</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>143</v>
+        <v>82</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="E7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>154</v>
+        <v>84</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="E8" t="s">
-        <v>124</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>146</v>
+        <v>85</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>127</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>149</v>
+        <v>88</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>332</v>
+        <v>293</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="F15" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="G15" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
         <v>42</v>
       </c>
-      <c r="B16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" t="s">
-        <v>54</v>
-      </c>
       <c r="E16" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>134</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="G19" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="H19" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E20" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="G20" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="F21" t="s">
-        <v>105</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>106</v>
+        <v>69</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E22" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E23" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E24" t="s">
-        <v>139</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="G24" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" t="s">
         <v>42</v>
       </c>
-      <c r="B25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" t="s">
-        <v>54</v>
-      </c>
       <c r="E25" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="F26" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2797,7 +2707,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2809,68 +2719,68 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>333</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="C4" t="s">
-        <v>334</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="C5" t="s">
-        <v>335</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="C6" t="s">
-        <v>336</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -2883,7 +2793,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2896,33 +2806,33 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="E1" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>183</v>
+        <v>128</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2930,16 +2840,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="C3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>184</v>
+        <v>140</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2947,16 +2857,16 @@
     </row>
     <row r="4" spans="1:5" ht="17">
       <c r="A4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>189</v>
+        <v>30</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="C4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>185</v>
+        <v>139</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2964,16 +2874,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="C5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>186</v>
+        <v>136</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -2981,16 +2891,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="C6" t="s">
-        <v>180</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>187</v>
+        <v>141</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -2998,16 +2908,16 @@
     </row>
     <row r="7" spans="1:5" ht="17">
       <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>172</v>
+        <v>30</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="C7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>188</v>
+        <v>138</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -3015,16 +2925,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="C8" t="s">
-        <v>167</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>181</v>
+        <v>128</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -3032,16 +2942,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="C9" t="s">
-        <v>167</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>182</v>
+        <v>128</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -3060,293 +2970,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D72B0B-0937-4247-A733-A86715609C32}">
-  <dimension ref="A1:C28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="80.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="143.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
-        <v>3</v>
-      </c>
-      <c r="B19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
-        <v>3</v>
-      </c>
-      <c r="B21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
-        <v>3</v>
-      </c>
-      <c r="B22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
-        <v>3</v>
-      </c>
-      <c r="B23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
-        <v>3</v>
-      </c>
-      <c r="C24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
-        <v>3</v>
-      </c>
-      <c r="C25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
-        <v>3</v>
-      </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28">
-        <v>3</v>
-      </c>
-      <c r="B28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" t="s">
-        <v>95</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/source/pages.xlsx
+++ b/source/pages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harmsm/work/admin/website/github/website/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E91007-B740-A14B-8FF4-70236A08F548}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4544F66F-CC05-0B4C-9F45-10EB8F12A621}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{A8B7147D-77A5-1347-9728-F2522D06E352}"/>
+    <workbookView xWindow="36600" yWindow="-1500" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{A8B7147D-77A5-1347-9728-F2522D06E352}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="5" r:id="rId1"/>
@@ -152,9 +152,6 @@
     <t>Jeremy Anderson</t>
   </si>
   <si>
-    <t>Data scientist</t>
-  </si>
-  <si>
     <t>Nick Frantz</t>
   </si>
   <si>
@@ -182,9 +179,6 @@
     <t>Zach Sailer</t>
   </si>
   <si>
-    <t>Software developer, Jupyter project</t>
-  </si>
-  <si>
     <t>Caitlyn Wong</t>
   </si>
   <si>
@@ -939,6 +933,12 @@
   </si>
   <si>
     <t>Exploring the evolutionary history of kinetic stability in the alpha-lytic protease family</t>
+  </si>
+  <si>
+    <t>Software developer, Apple</t>
+  </si>
+  <si>
+    <t>Data scientist, Travelers Insurance</t>
   </si>
 </sst>
 </file>
@@ -1335,536 +1335,536 @@
         <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" t="s">
         <v>154</v>
       </c>
-      <c r="F1" t="s">
-        <v>156</v>
-      </c>
       <c r="G1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D2">
         <v>2003</v>
       </c>
       <c r="E2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D3">
         <v>2005</v>
       </c>
       <c r="E3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D4">
         <v>2008</v>
       </c>
       <c r="E4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D5">
         <v>2009</v>
       </c>
       <c r="E5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D6">
         <v>2010</v>
       </c>
       <c r="E6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D7">
         <v>2010</v>
       </c>
       <c r="E7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D8">
         <v>2011</v>
       </c>
       <c r="E8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D9">
         <v>2012</v>
       </c>
       <c r="E9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F9" t="s">
+        <v>257</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D10">
         <v>2013</v>
       </c>
       <c r="E10" t="s">
+        <v>252</v>
+      </c>
+      <c r="F10" t="s">
+        <v>253</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="F10" t="s">
-        <v>255</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D11">
         <v>2013</v>
       </c>
       <c r="E11" t="s">
+        <v>247</v>
+      </c>
+      <c r="F11" t="s">
+        <v>248</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="F11" t="s">
-        <v>250</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D12">
         <v>2013</v>
       </c>
       <c r="E12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D13">
         <v>2014</v>
       </c>
       <c r="E13" t="s">
+        <v>238</v>
+      </c>
+      <c r="F13" t="s">
+        <v>239</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="F13" t="s">
-        <v>241</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D14">
         <v>2014</v>
       </c>
       <c r="E14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F14" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D15">
         <v>2016</v>
       </c>
       <c r="E15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F15" t="s">
+        <v>224</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="F15" t="s">
-        <v>226</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B16" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D16">
         <v>2016</v>
       </c>
       <c r="E16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B17" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D17">
         <v>2016</v>
       </c>
       <c r="E17" t="s">
+        <v>209</v>
+      </c>
+      <c r="F17" t="s">
+        <v>210</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="F17" t="s">
-        <v>212</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B18" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D18">
         <v>2017</v>
       </c>
       <c r="E18" t="s">
+        <v>228</v>
+      </c>
+      <c r="F18" t="s">
+        <v>229</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="F18" t="s">
-        <v>231</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19" t="s">
+        <v>204</v>
+      </c>
+      <c r="F19" t="s">
+        <v>205</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="F19" t="s">
-        <v>207</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B20" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D20">
         <v>2017</v>
       </c>
       <c r="E20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B21" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C21" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D21">
         <v>2017</v>
       </c>
       <c r="E21" t="s">
+        <v>196</v>
+      </c>
+      <c r="F21" t="s">
+        <v>197</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="F21" t="s">
-        <v>199</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C22" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D22">
         <v>2017</v>
       </c>
       <c r="E22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C23" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D23">
         <v>2018</v>
       </c>
       <c r="E23" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F23" t="s">
+        <v>218</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B24" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D24">
         <v>2018</v>
@@ -1873,41 +1873,41 @@
         <v>35</v>
       </c>
       <c r="F24" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D25">
         <v>2018</v>
       </c>
       <c r="E25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C26" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D26">
         <v>2018</v>
@@ -1916,173 +1916,173 @@
         <v>35</v>
       </c>
       <c r="F26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C27" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D27">
         <v>2019</v>
       </c>
       <c r="E27" t="s">
+        <v>175</v>
+      </c>
+      <c r="F27" t="s">
         <v>177</v>
       </c>
-      <c r="F27" t="s">
-        <v>179</v>
-      </c>
       <c r="G27" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C28" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28" t="s">
+        <v>170</v>
+      </c>
+      <c r="F28" t="s">
+        <v>171</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="F28" t="s">
-        <v>173</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B29" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C29" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D29">
         <v>2020</v>
       </c>
       <c r="E29" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B30" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C30" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D30">
         <v>2019</v>
       </c>
       <c r="E30" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B31" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D31">
         <v>2019</v>
       </c>
       <c r="E31" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B32" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" t="s">
         <v>160</v>
-      </c>
-      <c r="C32" t="s">
-        <v>162</v>
       </c>
       <c r="D32">
         <v>2020</v>
       </c>
       <c r="E32" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B33" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C33" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D33">
         <v>2020</v>
       </c>
       <c r="E33" t="s">
+        <v>153</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B34" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C34" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D34">
         <v>2020</v>
       </c>
       <c r="E34" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -2128,8 +2128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A604AB1-DDFC-4B40-85A4-D0BC5335EE4C}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2174,7 +2174,7 @@
         <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2191,7 +2191,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -2214,15 +2214,15 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I3" s="1"/>
     </row>
@@ -2240,7 +2240,7 @@
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>17</v>
@@ -2260,7 +2260,7 @@
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>22</v>
@@ -2280,13 +2280,13 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2294,25 +2294,25 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="E7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2326,13 +2326,13 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2340,16 +2340,16 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2360,13 +2360,13 @@
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2380,19 +2380,19 @@
         <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2409,7 +2409,7 @@
         <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2426,7 +2426,7 @@
         <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2434,19 +2434,19 @@
         <v>30</v>
       </c>
       <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
         <v>39</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
       </c>
       <c r="D14" t="s">
         <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2457,19 +2457,19 @@
         <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>300</v>
       </c>
       <c r="E15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2477,16 +2477,16 @@
         <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
         <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2494,13 +2494,13 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2508,16 +2508,16 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
         <v>44</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>45</v>
       </c>
-      <c r="D18" t="s">
-        <v>46</v>
-      </c>
       <c r="E18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2525,25 +2525,25 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>299</v>
       </c>
       <c r="E19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" t="s">
         <v>65</v>
-      </c>
-      <c r="G19" t="s">
-        <v>66</v>
-      </c>
-      <c r="H19" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2551,19 +2551,19 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
         <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2571,22 +2571,22 @@
         <v>30</v>
       </c>
       <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" t="s">
         <v>50</v>
       </c>
-      <c r="C21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" t="s">
-        <v>52</v>
-      </c>
       <c r="E21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2594,7 +2594,7 @@
         <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
         <v>34</v>
@@ -2603,7 +2603,7 @@
         <v>35</v>
       </c>
       <c r="E22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2611,16 +2611,16 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
         <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
         <v>34</v>
@@ -2637,13 +2637,13 @@
         <v>35</v>
       </c>
       <c r="E24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2651,16 +2651,16 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
         <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2668,16 +2668,16 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
         <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2706,7 +2706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03DD845D-47E5-1E42-A12B-67B3BEB52BF9}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -2725,62 +2725,62 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -2815,10 +2815,10 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2826,13 +2826,13 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2843,13 +2843,13 @@
         <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2860,13 +2860,13 @@
         <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2877,13 +2877,13 @@
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -2894,13 +2894,13 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -2911,13 +2911,13 @@
         <v>30</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2928,13 +2928,13 @@
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2945,13 +2945,13 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E9">
         <v>1</v>

--- a/source/pages.xlsx
+++ b/source/pages.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harmsm/work/admin/website/github/website/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4544F66F-CC05-0B4C-9F45-10EB8F12A621}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87F22CD-F68A-7541-A0DB-65A3EFBB634E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36600" yWindow="-1500" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{A8B7147D-77A5-1347-9728-F2522D06E352}"/>
+    <workbookView xWindow="36600" yWindow="-1500" windowWidth="28800" windowHeight="17540" xr2:uid="{A8B7147D-77A5-1347-9728-F2522D06E352}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="projects" sheetId="3" r:id="rId3"/>
     <sheet name="funding" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -743,9 +743,6 @@
     <t>PLOS Biology</t>
   </si>
   <si>
-    <t>second review</t>
-  </si>
-  <si>
     <t>Biophysical basis for historical contingency in glucocorticoid receptor evolution</t>
   </si>
   <si>
@@ -939,6 +936,9 @@
   </si>
   <si>
     <t>Data scientist, Travelers Insurance</t>
+  </si>
+  <si>
+    <t>Journal of Immunology</t>
   </si>
 </sst>
 </file>
@@ -1315,8 +1315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC076B7-4CEB-C143-9E7B-9F55AFCD75D9}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1358,10 +1358,10 @@
         <v>169</v>
       </c>
       <c r="B2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" t="s">
         <v>277</v>
-      </c>
-      <c r="C2" t="s">
-        <v>278</v>
       </c>
       <c r="D2">
         <v>2003</v>
@@ -1370,10 +1370,10 @@
         <v>175</v>
       </c>
       <c r="F2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1381,10 +1381,10 @@
         <v>169</v>
       </c>
       <c r="B3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C3" t="s">
         <v>274</v>
-      </c>
-      <c r="C3" t="s">
-        <v>275</v>
       </c>
       <c r="D3">
         <v>2005</v>
@@ -1393,10 +1393,10 @@
         <v>196</v>
       </c>
       <c r="F3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1404,10 +1404,10 @@
         <v>169</v>
       </c>
       <c r="B4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C4" t="s">
         <v>271</v>
-      </c>
-      <c r="C4" t="s">
-        <v>272</v>
       </c>
       <c r="D4">
         <v>2008</v>
@@ -1416,10 +1416,10 @@
         <v>175</v>
       </c>
       <c r="F4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1427,22 +1427,22 @@
         <v>169</v>
       </c>
       <c r="B5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" t="s">
         <v>268</v>
-      </c>
-      <c r="C5" t="s">
-        <v>269</v>
       </c>
       <c r="D5">
         <v>2009</v>
       </c>
       <c r="E5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1450,10 +1450,10 @@
         <v>169</v>
       </c>
       <c r="B6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D6">
         <v>2010</v>
@@ -1462,10 +1462,10 @@
         <v>223</v>
       </c>
       <c r="F6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1473,10 +1473,10 @@
         <v>169</v>
       </c>
       <c r="B7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D7">
         <v>2010</v>
@@ -1485,10 +1485,10 @@
         <v>234</v>
       </c>
       <c r="F7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1496,10 +1496,10 @@
         <v>169</v>
       </c>
       <c r="B8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C8" t="s">
         <v>260</v>
-      </c>
-      <c r="C8" t="s">
-        <v>261</v>
       </c>
       <c r="D8">
         <v>2011</v>
@@ -1508,10 +1508,10 @@
         <v>196</v>
       </c>
       <c r="F8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1519,22 +1519,22 @@
         <v>169</v>
       </c>
       <c r="B9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D9">
         <v>2012</v>
       </c>
       <c r="E9" t="s">
+        <v>255</v>
+      </c>
+      <c r="F9" t="s">
         <v>256</v>
       </c>
-      <c r="F9" t="s">
-        <v>257</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1542,22 +1542,22 @@
         <v>169</v>
       </c>
       <c r="B10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D10">
         <v>2013</v>
       </c>
       <c r="E10" t="s">
+        <v>251</v>
+      </c>
+      <c r="F10" t="s">
         <v>252</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1565,22 +1565,22 @@
         <v>169</v>
       </c>
       <c r="B11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D11">
         <v>2013</v>
       </c>
       <c r="E11" t="s">
+        <v>246</v>
+      </c>
+      <c r="F11" t="s">
         <v>247</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1588,10 +1588,10 @@
         <v>169</v>
       </c>
       <c r="B12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C12" t="s">
         <v>243</v>
-      </c>
-      <c r="C12" t="s">
-        <v>244</v>
       </c>
       <c r="D12">
         <v>2013</v>
@@ -1600,10 +1600,10 @@
         <v>196</v>
       </c>
       <c r="F12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1611,22 +1611,22 @@
         <v>169</v>
       </c>
       <c r="B13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D13">
         <v>2014</v>
       </c>
       <c r="E13" t="s">
+        <v>237</v>
+      </c>
+      <c r="F13" t="s">
         <v>238</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1649,7 +1649,7 @@
         <v>233</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1861,7 +1861,7 @@
         <v>169</v>
       </c>
       <c r="B24" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C24" t="s">
         <v>187</v>
@@ -1970,7 +1970,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B29" t="s">
         <v>166</v>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>235</v>
+        <v>289</v>
       </c>
       <c r="B30" t="s">
         <v>164</v>
@@ -1996,10 +1996,10 @@
         <v>162</v>
       </c>
       <c r="D30">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E30" t="s">
-        <v>153</v>
+        <v>300</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>163</v>
@@ -2007,47 +2007,47 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C31" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D31">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E31" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>235</v>
+        <v>287</v>
       </c>
       <c r="B32" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C32" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D32">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B33" t="s">
         <v>150</v>
@@ -2067,13 +2067,13 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B34" t="s">
+        <v>296</v>
+      </c>
+      <c r="C34" t="s">
         <v>297</v>
-      </c>
-      <c r="C34" t="s">
-        <v>298</v>
       </c>
       <c r="D34">
         <v>2020</v>
@@ -2082,14 +2082,14 @@
         <v>153</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G33" r:id="rId1" xr:uid="{68DDD81A-3CE6-4D48-B07B-3FA587DAA0EF}"/>
-    <hyperlink ref="G31" r:id="rId2" xr:uid="{AAE2C6FC-A8EF-3742-BF8C-3E5E3CB56003}"/>
-    <hyperlink ref="G32" r:id="rId3" xr:uid="{E8315D43-9C51-F74C-9DDE-FD29E8937FA9}"/>
+    <hyperlink ref="G32" r:id="rId2" xr:uid="{AAE2C6FC-A8EF-3742-BF8C-3E5E3CB56003}"/>
+    <hyperlink ref="G31" r:id="rId3" xr:uid="{E8315D43-9C51-F74C-9DDE-FD29E8937FA9}"/>
     <hyperlink ref="G30" r:id="rId4" xr:uid="{B141FD81-723B-714C-B729-8B9994B01FAA}"/>
     <hyperlink ref="G28" r:id="rId5" xr:uid="{45942973-9C5B-5C49-8E0E-73A2BAA4D28E}"/>
     <hyperlink ref="G27" r:id="rId6" xr:uid="{54AFFC4F-02C1-A147-B9BB-2C12B999CD3F}"/>
@@ -2128,7 +2128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A604AB1-DDFC-4B40-85A4-D0BC5335EE4C}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -2457,10 +2457,10 @@
         <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E15" t="s">
         <v>75</v>
@@ -2531,7 +2531,7 @@
         <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E19" t="s">
         <v>93</v>
@@ -2736,7 +2736,7 @@
         <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2758,7 +2758,7 @@
         <v>122</v>
       </c>
       <c r="C4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2769,7 +2769,7 @@
         <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2780,7 +2780,7 @@
         <v>123</v>
       </c>
       <c r="C6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/source/pages.xlsx
+++ b/source/pages.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harmsm/work/admin/website/github/website/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87F22CD-F68A-7541-A0DB-65A3EFBB634E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F935767-7BA7-564C-A015-274A7A489810}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36600" yWindow="-1500" windowWidth="28800" windowHeight="17540" xr2:uid="{A8B7147D-77A5-1347-9728-F2522D06E352}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{A8B7147D-77A5-1347-9728-F2522D06E352}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="projects" sheetId="3" r:id="rId3"/>
     <sheet name="funding" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="314">
   <si>
     <t>Evolution of innate immune proteins</t>
   </si>
@@ -257,9 +257,6 @@
     <t>nfrantz@uoregon.edu</t>
   </si>
   <si>
-    <t>Evolution of pro-inflammatory receptors</t>
-  </si>
-  <si>
     <t>Experimental studies of biophysical basis of high-order epistasis</t>
   </si>
   <si>
@@ -368,9 +365,6 @@
     <t>How does S100A9 interact with TLR4?</t>
   </si>
   <si>
-    <t>Evolution of S100A9</t>
-  </si>
-  <si>
     <t>Studies of protein sequence space</t>
   </si>
   <si>
@@ -521,9 +515,6 @@
     <t>Learning Peptide Recognition Rules for a Low Specificity Protein</t>
   </si>
   <si>
-    <t xml:space="preserve">https://doi.org/10.1101/2020.06.02.131086 </t>
-  </si>
-  <si>
     <t>Identification and characterization of zebrafish Tlr4 co-receptor Md-2</t>
   </si>
   <si>
@@ -902,50 +893,98 @@
     <t>first review</t>
   </si>
   <si>
-    <t>first revision</t>
+    <t>Postdoc</t>
+  </si>
+  <si>
+    <t>projects.html#evolution-of-innate-immune-proteins</t>
+  </si>
+  <si>
+    <t>projects.html#evolution-of-specificity</t>
+  </si>
+  <si>
+    <t>projects.html#open-source-software</t>
+  </si>
+  <si>
+    <t>teaching.html</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1101/2020.08.30.274340</t>
+  </si>
+  <si>
+    <t>Nixon CF, Lim SA, Sailer ZR, Zheludev IN, Gee CL, Kelch BA, Harms MJ, Marqusee S</t>
+  </si>
+  <si>
+    <t>Exploring the evolutionary history of kinetic stability in the alpha-lytic protease family</t>
+  </si>
+  <si>
+    <t>Software developer, Apple</t>
+  </si>
+  <si>
+    <t>Data scientist, Travelers Insurance</t>
+  </si>
+  <si>
+    <t>Journal of Immunology</t>
+  </si>
+  <si>
+    <t>second review</t>
+  </si>
+  <si>
+    <t>https://journals.plos.org/ploscompbiol/article?id=10.1371/journal.pcbi.1008243</t>
+  </si>
+  <si>
+    <t>e1008243</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/pro.3958</t>
+  </si>
+  <si>
+    <t>https://www.biorxiv.org/content/10.1101/2020.10.14.339671v1</t>
+  </si>
+  <si>
+    <t>Morrison AJ, Wonderlick DR, Harms MJ</t>
+  </si>
+  <si>
+    <t>Ensemble epistasis: thermodynamic origins of non-additivity between mutations</t>
   </si>
   <si>
     <t>in press</t>
   </si>
   <si>
-    <t>Postdoc</t>
-  </si>
-  <si>
-    <t>projects.html#evolution-of-innate-immune-proteins</t>
-  </si>
-  <si>
-    <t>projects.html#evolution-of-specificity</t>
-  </si>
-  <si>
-    <t>projects.html#open-source-software</t>
-  </si>
-  <si>
-    <t>teaching.html</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1101/2020.08.30.274340</t>
-  </si>
-  <si>
-    <t>Nixon CF, Lim SA, Sailer ZR, Zheludev IN, Gee CL, Kelch BA, Harms MJ, Marqusee S</t>
-  </si>
-  <si>
-    <t>Exploring the evolutionary history of kinetic stability in the alpha-lytic protease family</t>
-  </si>
-  <si>
-    <t>Software developer, Apple</t>
-  </si>
-  <si>
-    <t>Data scientist, Travelers Insurance</t>
-  </si>
-  <si>
-    <t>Journal of Immunology</t>
+    <t>JJ Yin</t>
+  </si>
+  <si>
+    <t>Evolution of S100A9 proinflammatory activity</t>
+  </si>
+  <si>
+    <t>Role of CD14 in S100A9 activation of TLR4</t>
+  </si>
+  <si>
+    <t>yin_circle_150x150.png</t>
+  </si>
+  <si>
+    <t>Jyin5@uoregon.edu</t>
+  </si>
+  <si>
+    <t>Kona Orlandi</t>
+  </si>
+  <si>
+    <t>Early evolution of TLR4</t>
+  </si>
+  <si>
+    <t>orlandi_circle_150x150.png</t>
+  </si>
+  <si>
+    <t>konao@uoregon.edu</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/kona-orlandi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1313,13 +1352,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC076B7-4CEB-C143-9E7B-9F55AFCD75D9}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="80.83203125" bestFit="1" customWidth="1"/>
@@ -1330,541 +1369,541 @@
     <col min="7" max="7" width="66" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" t="s">
         <v>152</v>
       </c>
-      <c r="F1" t="s">
-        <v>154</v>
-      </c>
       <c r="G1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D2">
         <v>2003</v>
       </c>
       <c r="E2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D3">
         <v>2005</v>
       </c>
       <c r="E3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D4">
         <v>2008</v>
       </c>
       <c r="E4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D5">
         <v>2009</v>
       </c>
       <c r="E5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D6">
         <v>2010</v>
       </c>
       <c r="E6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D7">
         <v>2010</v>
       </c>
       <c r="E7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B8" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C8" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D8">
         <v>2011</v>
       </c>
       <c r="E8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F8" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B9" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D9">
         <v>2012</v>
       </c>
       <c r="E9" t="s">
+        <v>252</v>
+      </c>
+      <c r="F9" t="s">
+        <v>253</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="F9" t="s">
-        <v>256</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B10" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C10" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D10">
         <v>2013</v>
       </c>
       <c r="E10" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F10" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B11" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C11" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D11">
         <v>2013</v>
       </c>
       <c r="E11" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F11" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B12" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C12" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D12">
         <v>2013</v>
       </c>
       <c r="E12" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F12" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B13" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C13" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D13">
         <v>2014</v>
       </c>
       <c r="E13" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F13" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D14">
         <v>2014</v>
       </c>
       <c r="E14" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F14" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B15" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C15" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D15">
         <v>2016</v>
       </c>
       <c r="E15" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F15" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B16" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C16" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D16">
         <v>2016</v>
       </c>
       <c r="E16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F16" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B17" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C17" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D17">
         <v>2016</v>
       </c>
       <c r="E17" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F17" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B18" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C18" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D18">
         <v>2017</v>
       </c>
       <c r="E18" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F18" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B19" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C19" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F19" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B20" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C20" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D20">
         <v>2017</v>
       </c>
       <c r="E20" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B21" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C21" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D21">
         <v>2017</v>
       </c>
       <c r="E21" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F21" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B22" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C22" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D22">
         <v>2017</v>
       </c>
       <c r="E22" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B23" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C23" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D23">
         <v>2018</v>
       </c>
       <c r="E23" t="s">
+        <v>214</v>
+      </c>
+      <c r="F23" t="s">
+        <v>215</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F23" t="s">
-        <v>218</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B24" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C24" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D24">
         <v>2018</v>
@@ -1873,41 +1912,41 @@
         <v>35</v>
       </c>
       <c r="F24" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B25" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C25" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D25">
         <v>2018</v>
       </c>
       <c r="E25" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B26" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C26" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D26">
         <v>2018</v>
@@ -1916,209 +1955,235 @@
         <v>35</v>
       </c>
       <c r="F26" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B27" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C27" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D27">
         <v>2019</v>
       </c>
       <c r="E27" t="s">
+        <v>172</v>
+      </c>
+      <c r="F27" t="s">
+        <v>174</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F27" t="s">
-        <v>177</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B28" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C28" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F28" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>289</v>
+        <v>166</v>
       </c>
       <c r="B29" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C29" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D29">
         <v>2020</v>
       </c>
       <c r="E29" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>198</v>
+      </c>
+      <c r="F29" t="s">
+        <v>298</v>
+      </c>
+      <c r="G29" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="B30" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C30" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D30">
         <v>2020</v>
       </c>
       <c r="E30" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>289</v>
+        <v>166</v>
       </c>
       <c r="B31" t="s">
+        <v>156</v>
+      </c>
+      <c r="C31" t="s">
         <v>158</v>
-      </c>
-      <c r="C31" t="s">
-        <v>160</v>
       </c>
       <c r="D31">
         <v>2020</v>
       </c>
       <c r="E31" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B32" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C32" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D32">
         <v>2019</v>
       </c>
       <c r="E32" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B33" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C33" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D33">
         <v>2020</v>
       </c>
       <c r="E33" t="s">
+        <v>151</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="B34" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C34" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D34">
         <v>2020</v>
       </c>
       <c r="E34" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>284</v>
+      </c>
+      <c r="B35" t="s">
+        <v>301</v>
+      </c>
+      <c r="C35" t="s">
+        <v>302</v>
+      </c>
+      <c r="D35">
+        <v>2020</v>
+      </c>
+      <c r="E35" t="s">
+        <v>151</v>
+      </c>
+      <c r="G35" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G33" r:id="rId1" xr:uid="{68DDD81A-3CE6-4D48-B07B-3FA587DAA0EF}"/>
     <hyperlink ref="G32" r:id="rId2" xr:uid="{AAE2C6FC-A8EF-3742-BF8C-3E5E3CB56003}"/>
-    <hyperlink ref="G31" r:id="rId3" xr:uid="{E8315D43-9C51-F74C-9DDE-FD29E8937FA9}"/>
-    <hyperlink ref="G30" r:id="rId4" xr:uid="{B141FD81-723B-714C-B729-8B9994B01FAA}"/>
-    <hyperlink ref="G28" r:id="rId5" xr:uid="{45942973-9C5B-5C49-8E0E-73A2BAA4D28E}"/>
-    <hyperlink ref="G27" r:id="rId6" xr:uid="{54AFFC4F-02C1-A147-B9BB-2C12B999CD3F}"/>
-    <hyperlink ref="G26" r:id="rId7" xr:uid="{9E24C7C4-EA59-E840-AD41-8AA490E9807A}"/>
-    <hyperlink ref="G25" r:id="rId8" xr:uid="{2A138BC8-6371-F449-AAD6-3853D57719F5}"/>
-    <hyperlink ref="G24" r:id="rId9" xr:uid="{10388BC7-F90B-7F4B-834C-57C020FB1E87}"/>
-    <hyperlink ref="G22" r:id="rId10" xr:uid="{CDAF39F0-7855-B94A-ADB3-736C0F00C272}"/>
-    <hyperlink ref="G21" r:id="rId11" xr:uid="{359B8240-E550-984D-AE54-20C94C296A73}"/>
-    <hyperlink ref="G20" r:id="rId12" xr:uid="{72D870C2-9231-CB49-B028-108FC14CFBA6}"/>
-    <hyperlink ref="G19" r:id="rId13" xr:uid="{ED7CD363-EC05-5F41-8F5F-C76C76C11D0F}"/>
-    <hyperlink ref="G17" r:id="rId14" xr:uid="{F8AA907C-D007-E247-B212-7A124A587256}"/>
-    <hyperlink ref="G16" r:id="rId15" xr:uid="{2EE538B5-1D5F-4B47-865D-B41E619EED88}"/>
-    <hyperlink ref="G23" r:id="rId16" xr:uid="{8D327EC1-9629-ED4B-9861-80C8005C1BC9}"/>
-    <hyperlink ref="G15" r:id="rId17" xr:uid="{F194B9BB-D1F2-C04F-B334-F957C7FE214D}"/>
-    <hyperlink ref="G18" r:id="rId18" xr:uid="{6B4D3FC6-CBBB-264C-8159-2709E11863C4}"/>
-    <hyperlink ref="G13" r:id="rId19" xr:uid="{ED668A75-FE8E-994B-BEA7-F052AFB8C0EA}"/>
-    <hyperlink ref="G12" r:id="rId20" xr:uid="{68945279-32B0-8B4C-9D2C-4F919AC39821}"/>
-    <hyperlink ref="G14" r:id="rId21" xr:uid="{8F70E081-6CFE-9442-9E37-9C8E066B4280}"/>
-    <hyperlink ref="G11" r:id="rId22" xr:uid="{2ACD1F8A-6AB7-534F-89B7-860497644A90}"/>
-    <hyperlink ref="G10" r:id="rId23" xr:uid="{02DFDAD8-3078-1342-AE1C-7599CC96ADB5}"/>
-    <hyperlink ref="G9" r:id="rId24" xr:uid="{03292DF2-01B0-0547-AFBF-4DCFC68BCA43}"/>
-    <hyperlink ref="G8" r:id="rId25" xr:uid="{4426C169-4546-6D44-8A56-1F7DFE740E9F}"/>
-    <hyperlink ref="G7" r:id="rId26" xr:uid="{4CA84CFC-00FC-614F-968F-9F17BC5B131E}"/>
-    <hyperlink ref="G6" r:id="rId27" xr:uid="{75EE9926-88DC-6B42-A2D5-C29D7EC355E2}"/>
-    <hyperlink ref="G5" r:id="rId28" xr:uid="{50D3D1D4-C79E-7343-83E7-360080F804D1}"/>
-    <hyperlink ref="G4" r:id="rId29" xr:uid="{4E06EB98-A16A-5440-B604-68B41286E37E}"/>
-    <hyperlink ref="G3" r:id="rId30" xr:uid="{79FA9F8C-B50B-9A45-AB12-7B8902450FEE}"/>
-    <hyperlink ref="G2" r:id="rId31" xr:uid="{6E3F39B4-F9C2-2E49-A744-DE4788D59A56}"/>
-    <hyperlink ref="G34" r:id="rId32" xr:uid="{5524E091-EA10-5B42-AC63-A8D32A2E716B}"/>
+    <hyperlink ref="G30" r:id="rId3" xr:uid="{B141FD81-723B-714C-B729-8B9994B01FAA}"/>
+    <hyperlink ref="G28" r:id="rId4" xr:uid="{45942973-9C5B-5C49-8E0E-73A2BAA4D28E}"/>
+    <hyperlink ref="G27" r:id="rId5" xr:uid="{54AFFC4F-02C1-A147-B9BB-2C12B999CD3F}"/>
+    <hyperlink ref="G26" r:id="rId6" xr:uid="{9E24C7C4-EA59-E840-AD41-8AA490E9807A}"/>
+    <hyperlink ref="G25" r:id="rId7" xr:uid="{2A138BC8-6371-F449-AAD6-3853D57719F5}"/>
+    <hyperlink ref="G24" r:id="rId8" xr:uid="{10388BC7-F90B-7F4B-834C-57C020FB1E87}"/>
+    <hyperlink ref="G22" r:id="rId9" xr:uid="{CDAF39F0-7855-B94A-ADB3-736C0F00C272}"/>
+    <hyperlink ref="G21" r:id="rId10" xr:uid="{359B8240-E550-984D-AE54-20C94C296A73}"/>
+    <hyperlink ref="G20" r:id="rId11" xr:uid="{72D870C2-9231-CB49-B028-108FC14CFBA6}"/>
+    <hyperlink ref="G19" r:id="rId12" xr:uid="{ED7CD363-EC05-5F41-8F5F-C76C76C11D0F}"/>
+    <hyperlink ref="G17" r:id="rId13" xr:uid="{F8AA907C-D007-E247-B212-7A124A587256}"/>
+    <hyperlink ref="G16" r:id="rId14" xr:uid="{2EE538B5-1D5F-4B47-865D-B41E619EED88}"/>
+    <hyperlink ref="G23" r:id="rId15" xr:uid="{8D327EC1-9629-ED4B-9861-80C8005C1BC9}"/>
+    <hyperlink ref="G15" r:id="rId16" xr:uid="{F194B9BB-D1F2-C04F-B334-F957C7FE214D}"/>
+    <hyperlink ref="G18" r:id="rId17" xr:uid="{6B4D3FC6-CBBB-264C-8159-2709E11863C4}"/>
+    <hyperlink ref="G13" r:id="rId18" xr:uid="{ED668A75-FE8E-994B-BEA7-F052AFB8C0EA}"/>
+    <hyperlink ref="G12" r:id="rId19" xr:uid="{68945279-32B0-8B4C-9D2C-4F919AC39821}"/>
+    <hyperlink ref="G14" r:id="rId20" xr:uid="{8F70E081-6CFE-9442-9E37-9C8E066B4280}"/>
+    <hyperlink ref="G11" r:id="rId21" xr:uid="{2ACD1F8A-6AB7-534F-89B7-860497644A90}"/>
+    <hyperlink ref="G10" r:id="rId22" xr:uid="{02DFDAD8-3078-1342-AE1C-7599CC96ADB5}"/>
+    <hyperlink ref="G9" r:id="rId23" xr:uid="{03292DF2-01B0-0547-AFBF-4DCFC68BCA43}"/>
+    <hyperlink ref="G8" r:id="rId24" xr:uid="{4426C169-4546-6D44-8A56-1F7DFE740E9F}"/>
+    <hyperlink ref="G7" r:id="rId25" xr:uid="{4CA84CFC-00FC-614F-968F-9F17BC5B131E}"/>
+    <hyperlink ref="G6" r:id="rId26" xr:uid="{75EE9926-88DC-6B42-A2D5-C29D7EC355E2}"/>
+    <hyperlink ref="G5" r:id="rId27" xr:uid="{50D3D1D4-C79E-7343-83E7-360080F804D1}"/>
+    <hyperlink ref="G4" r:id="rId28" xr:uid="{4E06EB98-A16A-5440-B604-68B41286E37E}"/>
+    <hyperlink ref="G3" r:id="rId29" xr:uid="{79FA9F8C-B50B-9A45-AB12-7B8902450FEE}"/>
+    <hyperlink ref="G2" r:id="rId30" xr:uid="{6E3F39B4-F9C2-2E49-A744-DE4788D59A56}"/>
+    <hyperlink ref="G34" r:id="rId31" xr:uid="{5524E091-EA10-5B42-AC63-A8D32A2E716B}"/>
+    <hyperlink ref="G31" r:id="rId32" xr:uid="{80FBEAC3-3A31-D443-9887-CEBBB867E665}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2126,13 +2191,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A604AB1-DDFC-4B40-85A4-D0BC5335EE4C}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
@@ -2145,7 +2210,7 @@
     <col min="9" max="9" width="31.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -2174,10 +2239,10 @@
         <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -2191,7 +2256,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -2203,7 +2268,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -2214,19 +2279,19 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -2240,13 +2305,16 @@
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="J4" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -2260,7 +2328,7 @@
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>22</v>
@@ -2269,366 +2337,372 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>309</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>310</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>311</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>102</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>305</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>82</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
         <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>306</v>
       </c>
       <c r="E10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>304</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>305</v>
       </c>
       <c r="E12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>307</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>85</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
         <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>87</v>
-      </c>
-      <c r="H14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>290</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>299</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>86</v>
+      </c>
+      <c r="H16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>285</v>
+      </c>
+      <c r="D17" t="s">
+        <v>294</v>
       </c>
       <c r="E17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="F17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" t="s">
-        <v>298</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>94</v>
-      </c>
-      <c r="G20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>293</v>
       </c>
       <c r="E21" t="s">
-        <v>95</v>
-      </c>
-      <c r="F21" t="s">
-        <v>67</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
         <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="E22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="G22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="F23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
         <v>34</v>
@@ -2637,46 +2711,80 @@
         <v>35</v>
       </c>
       <c r="E24" t="s">
-        <v>98</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
         <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E25" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
         <v>34</v>
       </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
       <c r="E26" t="s">
-        <v>100</v>
-      </c>
-      <c r="F26" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2686,17 +2794,20 @@
     <hyperlink ref="G2" r:id="rId2" xr:uid="{4B69F9D1-9BDC-3B49-95D5-B892E0F38E93}"/>
     <hyperlink ref="G4" r:id="rId3" xr:uid="{F297B546-961A-904C-8B57-270571840D4C}"/>
     <hyperlink ref="H5" r:id="rId4" xr:uid="{82F2EFE6-4E28-F34E-B218-DAA2AC17ECFE}"/>
-    <hyperlink ref="G21" r:id="rId5" xr:uid="{B5F9801A-D1FF-F945-B5EA-A95297A9AC9E}"/>
-    <hyperlink ref="F24" r:id="rId6" xr:uid="{7C843EC2-4C8D-4641-BB36-2B0270ADEE55}"/>
+    <hyperlink ref="G23" r:id="rId5" xr:uid="{B5F9801A-D1FF-F945-B5EA-A95297A9AC9E}"/>
+    <hyperlink ref="F26" r:id="rId6" xr:uid="{7C843EC2-4C8D-4641-BB36-2B0270ADEE55}"/>
     <hyperlink ref="H3" r:id="rId7" xr:uid="{B1C6FFD0-CEC7-F545-85D8-C469FD54EC40}"/>
-    <hyperlink ref="H6" r:id="rId8" xr:uid="{0B982E49-986A-0941-8C32-ADEAA21D9033}"/>
-    <hyperlink ref="H7" r:id="rId9" xr:uid="{82A7CA40-D4B3-CD48-B0DD-40DB2C17FB15}"/>
-    <hyperlink ref="F7" r:id="rId10" xr:uid="{DBABC5AF-727A-5F45-976D-9D37304F647C}"/>
-    <hyperlink ref="H8" r:id="rId11" xr:uid="{D81BC1A6-DB5E-2442-8092-0DCC05080E7B}"/>
-    <hyperlink ref="F11" r:id="rId12" xr:uid="{671646BC-4048-784B-A41A-EE3B6A5872DF}"/>
-    <hyperlink ref="G11" r:id="rId13" xr:uid="{520C3AB8-D98F-5A41-A791-18E65C05A26D}"/>
-    <hyperlink ref="H11" r:id="rId14" xr:uid="{AC194642-8CCA-D045-8B43-2E593C852C84}"/>
-    <hyperlink ref="J7" r:id="rId15" xr:uid="{7AD87150-852A-EC48-8A33-35899592670A}"/>
+    <hyperlink ref="H7" r:id="rId8" xr:uid="{0B982E49-986A-0941-8C32-ADEAA21D9033}"/>
+    <hyperlink ref="H8" r:id="rId9" xr:uid="{82A7CA40-D4B3-CD48-B0DD-40DB2C17FB15}"/>
+    <hyperlink ref="F8" r:id="rId10" xr:uid="{DBABC5AF-727A-5F45-976D-9D37304F647C}"/>
+    <hyperlink ref="H9" r:id="rId11" xr:uid="{D81BC1A6-DB5E-2442-8092-0DCC05080E7B}"/>
+    <hyperlink ref="F13" r:id="rId12" xr:uid="{671646BC-4048-784B-A41A-EE3B6A5872DF}"/>
+    <hyperlink ref="G13" r:id="rId13" xr:uid="{520C3AB8-D98F-5A41-A791-18E65C05A26D}"/>
+    <hyperlink ref="H13" r:id="rId14" xr:uid="{AC194642-8CCA-D045-8B43-2E593C852C84}"/>
+    <hyperlink ref="J8" r:id="rId15" xr:uid="{7AD87150-852A-EC48-8A33-35899592670A}"/>
+    <hyperlink ref="H12" r:id="rId16" display="mailto:Jyin5@uoregon.edu" xr:uid="{BD89C2C8-01DA-0945-8C45-44FC2597E1A0}"/>
+    <hyperlink ref="H6" r:id="rId17" display="mailto:konao@uoregon.edu" xr:uid="{99A77FB4-F7EA-7A4E-A1D6-82B0846E355F}"/>
+    <hyperlink ref="J4" r:id="rId18" display="http://www.linkedin.com/in/kona-orlandi" xr:uid="{72314501-811D-D043-997F-E392845F576D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2710,14 +2821,14 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.33203125" customWidth="1"/>
     <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -2725,62 +2836,62 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>116</v>
       </c>
-      <c r="B4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>118</v>
-      </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C6" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -2796,7 +2907,7 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.83203125" bestFit="1" customWidth="1"/>
@@ -2804,7 +2915,7 @@
     <col min="4" max="4" width="134.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -2815,143 +2926,143 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17">
+    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17">
+    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E9">
         <v>1</v>

--- a/source/pages.xlsx
+++ b/source/pages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harmsm/work/admin/website/github/website/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F935767-7BA7-564C-A015-274A7A489810}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D37B8F3-AC0B-CC44-8717-B1669294AD75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{A8B7147D-77A5-1347-9728-F2522D06E352}"/>
   </bookViews>
@@ -1355,7 +1355,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2193,8 +2193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A604AB1-DDFC-4B40-85A4-D0BC5335EE4C}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2310,9 +2310,6 @@
       <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>313</v>
-      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -2355,6 +2352,9 @@
       </c>
       <c r="H6" s="1" t="s">
         <v>312</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -2807,7 +2807,7 @@
     <hyperlink ref="J8" r:id="rId15" xr:uid="{7AD87150-852A-EC48-8A33-35899592670A}"/>
     <hyperlink ref="H12" r:id="rId16" display="mailto:Jyin5@uoregon.edu" xr:uid="{BD89C2C8-01DA-0945-8C45-44FC2597E1A0}"/>
     <hyperlink ref="H6" r:id="rId17" display="mailto:konao@uoregon.edu" xr:uid="{99A77FB4-F7EA-7A4E-A1D6-82B0846E355F}"/>
-    <hyperlink ref="J4" r:id="rId18" display="http://www.linkedin.com/in/kona-orlandi" xr:uid="{72314501-811D-D043-997F-E392845F576D}"/>
+    <hyperlink ref="J6" r:id="rId18" display="http://www.linkedin.com/in/kona-orlandi" xr:uid="{72314501-811D-D043-997F-E392845F576D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source/pages.xlsx
+++ b/source/pages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harmsm/work/admin/website/github/website/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D37B8F3-AC0B-CC44-8717-B1669294AD75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C68C1D-1C7F-E443-9EB7-11297BAEDB8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{A8B7147D-77A5-1347-9728-F2522D06E352}"/>
   </bookViews>
@@ -977,7 +977,7 @@
     <t>konao@uoregon.edu</t>
   </si>
   <si>
-    <t>www.linkedin.com/in/kona-orlandi</t>
+    <t>https://www.linkedin.com/in/kona-orlandi</t>
   </si>
 </sst>
 </file>
@@ -2194,7 +2194,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2807,7 +2807,7 @@
     <hyperlink ref="J8" r:id="rId15" xr:uid="{7AD87150-852A-EC48-8A33-35899592670A}"/>
     <hyperlink ref="H12" r:id="rId16" display="mailto:Jyin5@uoregon.edu" xr:uid="{BD89C2C8-01DA-0945-8C45-44FC2597E1A0}"/>
     <hyperlink ref="H6" r:id="rId17" display="mailto:konao@uoregon.edu" xr:uid="{99A77FB4-F7EA-7A4E-A1D6-82B0846E355F}"/>
-    <hyperlink ref="J6" r:id="rId18" display="http://www.linkedin.com/in/kona-orlandi" xr:uid="{72314501-811D-D043-997F-E392845F576D}"/>
+    <hyperlink ref="J6" r:id="rId18" xr:uid="{72314501-811D-D043-997F-E392845F576D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source/pages.xlsx
+++ b/source/pages.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harmsm/work/admin/website/github/website/source/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harmsm/work/admin/website/website/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C68C1D-1C7F-E443-9EB7-11297BAEDB8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD707E9-A5C9-3B4B-922C-D3EA3A755FC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{A8B7147D-77A5-1347-9728-F2522D06E352}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{A8B7147D-77A5-1347-9728-F2522D06E352}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="5" r:id="rId1"/>
@@ -1354,8 +1354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC076B7-4CEB-C143-9E7B-9F55AFCD75D9}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2112,7 +2112,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="B34" t="s">
         <v>291</v>
@@ -2193,8 +2193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A604AB1-DDFC-4B40-85A4-D0BC5335EE4C}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/source/pages.xlsx
+++ b/source/pages.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harmsm/work/admin/website/website/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD707E9-A5C9-3B4B-922C-D3EA3A755FC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAC93AE-F9E9-0F45-B704-F32CF287DBAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{A8B7147D-77A5-1347-9728-F2522D06E352}"/>
+    <workbookView xWindow="-30220" yWindow="-360" windowWidth="28800" windowHeight="17500" xr2:uid="{A8B7147D-77A5-1347-9728-F2522D06E352}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="315">
   <si>
     <t>Evolution of innate immune proteins</t>
   </si>
@@ -926,9 +926,6 @@
     <t>Journal of Immunology</t>
   </si>
   <si>
-    <t>second review</t>
-  </si>
-  <si>
     <t>https://journals.plos.org/ploscompbiol/article?id=10.1371/journal.pcbi.1008243</t>
   </si>
   <si>
@@ -978,6 +975,12 @@
   </si>
   <si>
     <t>https://www.linkedin.com/in/kona-orlandi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lupo BE, Chu P; Harms MJ; Morrison EA; Musselman CA </t>
+  </si>
+  <si>
+    <t>Evolutionary conservation of structural and functional coupling between the BRM AT-hook and bromodomain</t>
   </si>
 </sst>
 </file>
@@ -1352,10 +1355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC076B7-4CEB-C143-9E7B-9F55AFCD75D9}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2024,15 +2027,15 @@
         <v>198</v>
       </c>
       <c r="F29" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G29" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B30" t="s">
         <v>161</v>
@@ -2067,7 +2070,7 @@
         <v>172</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -2092,7 +2095,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B33" t="s">
         <v>148</v>
@@ -2112,7 +2115,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B34" t="s">
         <v>291</v>
@@ -2135,10 +2138,10 @@
         <v>284</v>
       </c>
       <c r="B35" t="s">
+        <v>300</v>
+      </c>
+      <c r="C35" t="s">
         <v>301</v>
-      </c>
-      <c r="C35" t="s">
-        <v>302</v>
       </c>
       <c r="D35">
         <v>2020</v>
@@ -2147,7 +2150,24 @@
         <v>151</v>
       </c>
       <c r="G35" t="s">
-        <v>300</v>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>302</v>
+      </c>
+      <c r="B36" t="s">
+        <v>313</v>
+      </c>
+      <c r="C36" t="s">
+        <v>314</v>
+      </c>
+      <c r="D36">
+        <v>2021</v>
+      </c>
+      <c r="E36" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -2339,22 +2359,22 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="s">
+        <v>309</v>
+      </c>
+      <c r="E6" t="s">
         <v>310</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -2414,7 +2434,7 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E9" t="s">
         <v>82</v>
@@ -2434,7 +2454,7 @@
         <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E10" t="s">
         <v>83</v>
@@ -2462,19 +2482,19 @@
         <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C12" t="s">
         <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E12" t="s">
+        <v>306</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">

--- a/source/pages.xlsx
+++ b/source/pages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harmsm/work/admin/website/website/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAC93AE-F9E9-0F45-B704-F32CF287DBAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945C36E4-D67C-F448-AE05-AACEAAA1E229}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30220" yWindow="-360" windowWidth="28800" windowHeight="17500" xr2:uid="{A8B7147D-77A5-1347-9728-F2522D06E352}"/>
   </bookViews>
@@ -1358,7 +1358,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2035,19 +2035,19 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>302</v>
+        <v>166</v>
       </c>
       <c r="B30" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D30">
         <v>2020</v>
       </c>
       <c r="E30" t="s">
-        <v>295</v>
+        <v>172</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>160</v>
@@ -2055,19 +2055,19 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>166</v>
+        <v>302</v>
       </c>
       <c r="B31" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C31" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D31">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E31" t="s">
-        <v>172</v>
+        <v>295</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>298</v>
@@ -2075,19 +2075,19 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="B32" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C32" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D32">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="E32" t="s">
-        <v>151</v>
+        <v>225</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>154</v>
@@ -2098,16 +2098,16 @@
         <v>302</v>
       </c>
       <c r="B33" t="s">
-        <v>148</v>
+        <v>291</v>
       </c>
       <c r="C33" t="s">
-        <v>149</v>
+        <v>292</v>
       </c>
       <c r="D33">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E33" t="s">
-        <v>151</v>
+        <v>35</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>153</v>
@@ -2118,16 +2118,16 @@
         <v>302</v>
       </c>
       <c r="B34" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
       <c r="C34" t="s">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="D34">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E34" t="s">
-        <v>151</v>
+        <v>248</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>290</v>
@@ -2138,13 +2138,13 @@
         <v>284</v>
       </c>
       <c r="B35" t="s">
-        <v>300</v>
+        <v>157</v>
       </c>
       <c r="C35" t="s">
-        <v>301</v>
+        <v>155</v>
       </c>
       <c r="D35">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E35" t="s">
         <v>151</v>
@@ -2155,19 +2155,19 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="B36" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="C36" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="D36">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E36" t="s">
-        <v>248</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/source/pages.xlsx
+++ b/source/pages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harmsm/work/admin/website/website/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945C36E4-D67C-F448-AE05-AACEAAA1E229}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E85662-A7FA-0942-94F0-EABD58C5D0B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30220" yWindow="-360" windowWidth="28800" windowHeight="17500" xr2:uid="{A8B7147D-77A5-1347-9728-F2522D06E352}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="320">
   <si>
     <t>Evolution of innate immune proteins</t>
   </si>
@@ -981,6 +981,21 @@
   </si>
   <si>
     <t>Evolutionary conservation of structural and functional coupling between the BRM AT-hook and bromodomain</t>
+  </si>
+  <si>
+    <t>https://www.biorxiv.org/content/10.1101/2020.10.14.339671v1.full</t>
+  </si>
+  <si>
+    <t>preprint</t>
+  </si>
+  <si>
+    <t>Loes AN, Shi R, Harms MJ</t>
+  </si>
+  <si>
+    <t>Zinc-independent activation of Toll-like receptor 4 by S100A9</t>
+  </si>
+  <si>
+    <t>https://www.biorxiv.org/content/10.1101/796219v1</t>
   </si>
 </sst>
 </file>
@@ -1355,10 +1370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC076B7-4CEB-C143-9E7B-9F55AFCD75D9}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1989,48 +2004,42 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>166</v>
+        <v>316</v>
       </c>
       <c r="B28" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C28" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D28">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E28" t="s">
-        <v>167</v>
-      </c>
-      <c r="F28" t="s">
-        <v>168</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>169</v>
+        <v>151</v>
+      </c>
+      <c r="G28" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>166</v>
+        <v>316</v>
       </c>
       <c r="B29" t="s">
-        <v>163</v>
+        <v>317</v>
       </c>
       <c r="C29" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="D29">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E29" t="s">
-        <v>198</v>
-      </c>
-      <c r="F29" t="s">
-        <v>297</v>
+        <v>151</v>
       </c>
       <c r="G29" t="s">
-        <v>296</v>
+        <v>319</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -2038,59 +2047,65 @@
         <v>166</v>
       </c>
       <c r="B30" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C30" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D30">
         <v>2020</v>
       </c>
       <c r="E30" t="s">
-        <v>172</v>
+        <v>167</v>
+      </c>
+      <c r="F30" t="s">
+        <v>168</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>302</v>
+        <v>166</v>
       </c>
       <c r="B31" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C31" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D31">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E31" t="s">
-        <v>295</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>298</v>
+        <v>198</v>
+      </c>
+      <c r="F31" t="s">
+        <v>297</v>
+      </c>
+      <c r="G31" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>302</v>
+        <v>166</v>
       </c>
       <c r="B32" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C32" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="D32">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E32" t="s">
-        <v>225</v>
+        <v>172</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -2098,19 +2113,19 @@
         <v>302</v>
       </c>
       <c r="B33" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="C33" t="s">
-        <v>292</v>
+        <v>159</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33" t="s">
-        <v>35</v>
+        <v>295</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>153</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -2118,64 +2133,87 @@
         <v>302</v>
       </c>
       <c r="B34" t="s">
-        <v>313</v>
+        <v>148</v>
       </c>
       <c r="C34" t="s">
-        <v>314</v>
+        <v>149</v>
       </c>
       <c r="D34">
         <v>2021</v>
       </c>
       <c r="E34" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>290</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="B35" t="s">
-        <v>157</v>
+        <v>291</v>
       </c>
       <c r="C35" t="s">
-        <v>155</v>
+        <v>292</v>
       </c>
       <c r="D35">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="E35" t="s">
-        <v>151</v>
-      </c>
-      <c r="G35" t="s">
-        <v>299</v>
+        <v>35</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>302</v>
+      </c>
+      <c r="B36" t="s">
+        <v>313</v>
+      </c>
+      <c r="C36" t="s">
+        <v>314</v>
+      </c>
+      <c r="D36">
+        <v>2021</v>
+      </c>
+      <c r="E36" t="s">
+        <v>248</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>284</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>300</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>301</v>
       </c>
-      <c r="D36">
+      <c r="D37">
         <v>2020</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E37" t="s">
         <v>151</v>
+      </c>
+      <c r="G37" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G33" r:id="rId1" xr:uid="{68DDD81A-3CE6-4D48-B07B-3FA587DAA0EF}"/>
-    <hyperlink ref="G32" r:id="rId2" xr:uid="{AAE2C6FC-A8EF-3742-BF8C-3E5E3CB56003}"/>
-    <hyperlink ref="G30" r:id="rId3" xr:uid="{B141FD81-723B-714C-B729-8B9994B01FAA}"/>
-    <hyperlink ref="G28" r:id="rId4" xr:uid="{45942973-9C5B-5C49-8E0E-73A2BAA4D28E}"/>
+    <hyperlink ref="G35" r:id="rId1" xr:uid="{68DDD81A-3CE6-4D48-B07B-3FA587DAA0EF}"/>
+    <hyperlink ref="G34" r:id="rId2" xr:uid="{AAE2C6FC-A8EF-3742-BF8C-3E5E3CB56003}"/>
+    <hyperlink ref="G32" r:id="rId3" xr:uid="{B141FD81-723B-714C-B729-8B9994B01FAA}"/>
+    <hyperlink ref="G30" r:id="rId4" xr:uid="{45942973-9C5B-5C49-8E0E-73A2BAA4D28E}"/>
     <hyperlink ref="G27" r:id="rId5" xr:uid="{54AFFC4F-02C1-A147-B9BB-2C12B999CD3F}"/>
     <hyperlink ref="G26" r:id="rId6" xr:uid="{9E24C7C4-EA59-E840-AD41-8AA490E9807A}"/>
     <hyperlink ref="G25" r:id="rId7" xr:uid="{2A138BC8-6371-F449-AAD6-3853D57719F5}"/>
@@ -2202,8 +2240,8 @@
     <hyperlink ref="G4" r:id="rId28" xr:uid="{4E06EB98-A16A-5440-B604-68B41286E37E}"/>
     <hyperlink ref="G3" r:id="rId29" xr:uid="{79FA9F8C-B50B-9A45-AB12-7B8902450FEE}"/>
     <hyperlink ref="G2" r:id="rId30" xr:uid="{6E3F39B4-F9C2-2E49-A744-DE4788D59A56}"/>
-    <hyperlink ref="G34" r:id="rId31" xr:uid="{5524E091-EA10-5B42-AC63-A8D32A2E716B}"/>
-    <hyperlink ref="G31" r:id="rId32" xr:uid="{80FBEAC3-3A31-D443-9887-CEBBB867E665}"/>
+    <hyperlink ref="G36" r:id="rId31" xr:uid="{5524E091-EA10-5B42-AC63-A8D32A2E716B}"/>
+    <hyperlink ref="G33" r:id="rId32" xr:uid="{80FBEAC3-3A31-D443-9887-CEBBB867E665}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source/pages.xlsx
+++ b/source/pages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harmsm/work/admin/website/website/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E85662-A7FA-0942-94F0-EABD58C5D0B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADAED5A-E4E5-1D42-BD0F-EB72308A0C35}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30220" yWindow="-360" windowWidth="28800" windowHeight="17500" xr2:uid="{A8B7147D-77A5-1347-9728-F2522D06E352}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="323">
   <si>
     <t>Evolution of innate immune proteins</t>
   </si>
@@ -497,12 +497,6 @@
     <t>meta</t>
   </si>
   <si>
-    <t>https://doi.org/10.1101/2020.05.27.120261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.1101/606970 </t>
-  </si>
-  <si>
     <t>Skeletal geometry and nice transitions restore organ size and shape during zebrafish fin regeneration</t>
   </si>
   <si>
@@ -518,9 +512,6 @@
     <t>Identification and characterization of zebrafish Tlr4 co-receptor Md-2</t>
   </si>
   <si>
-    <t>https://doi.org/10.1101/817528</t>
-  </si>
-  <si>
     <t>Loes AN, Hinman MN, Farnsworth DR, Miler AC, Guillemin K, Harms MJ</t>
   </si>
   <si>
@@ -890,9 +881,6 @@
     <t>Wheeler LW, Anderson JA, Morrison AJ, Wong CE, Harms MJ</t>
   </si>
   <si>
-    <t>first review</t>
-  </si>
-  <si>
     <t>Postdoc</t>
   </si>
   <si>
@@ -908,9 +896,6 @@
     <t>teaching.html</t>
   </si>
   <si>
-    <t>https://doi.org/10.1101/2020.08.30.274340</t>
-  </si>
-  <si>
     <t>Nixon CF, Lim SA, Sailer ZR, Zheludev IN, Gee CL, Kelch BA, Harms MJ, Marqusee S</t>
   </si>
   <si>
@@ -926,9 +911,6 @@
     <t>Journal of Immunology</t>
   </si>
   <si>
-    <t>https://journals.plos.org/ploscompbiol/article?id=10.1371/journal.pcbi.1008243</t>
-  </si>
-  <si>
     <t>e1008243</t>
   </si>
   <si>
@@ -944,9 +926,6 @@
     <t>Ensemble epistasis: thermodynamic origins of non-additivity between mutations</t>
   </si>
   <si>
-    <t>in press</t>
-  </si>
-  <si>
     <t>JJ Yin</t>
   </si>
   <si>
@@ -996,6 +975,36 @@
   </si>
   <si>
     <t>https://www.biorxiv.org/content/10.1101/796219v1</t>
+  </si>
+  <si>
+    <t>second review</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1093/molbev/msab019</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.4049/jimmunol.1901288</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/acs.biochem.0c00720</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jmb.2021.166845</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1371/journal.pcbi.1008243</t>
+  </si>
+  <si>
+    <t>29:2259 –2273</t>
+  </si>
+  <si>
+    <t>206(5):1046-1057</t>
+  </si>
+  <si>
+    <t>msab019</t>
+  </si>
+  <si>
+    <t>60(3):170–181</t>
   </si>
 </sst>
 </file>
@@ -1373,7 +1382,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1398,7 +1407,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E1" t="s">
         <v>150</v>
@@ -1412,516 +1421,516 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D2">
         <v>2003</v>
       </c>
       <c r="E2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D3">
         <v>2005</v>
       </c>
       <c r="E3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D4">
         <v>2008</v>
       </c>
       <c r="E4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D5">
         <v>2009</v>
       </c>
       <c r="E5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D6">
         <v>2010</v>
       </c>
       <c r="E6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D7">
         <v>2010</v>
       </c>
       <c r="E7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C8" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D8">
         <v>2011</v>
       </c>
       <c r="E8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F8" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C9" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D9">
         <v>2012</v>
       </c>
       <c r="E9" t="s">
+        <v>249</v>
+      </c>
+      <c r="F9" t="s">
+        <v>250</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="F9" t="s">
-        <v>253</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B10" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C10" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D10">
         <v>2013</v>
       </c>
       <c r="E10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F10" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B11" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C11" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D11">
         <v>2013</v>
       </c>
       <c r="E11" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F11" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B12" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C12" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D12">
         <v>2013</v>
       </c>
       <c r="E12" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F12" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C13" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D13">
         <v>2014</v>
       </c>
       <c r="E13" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F13" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C14" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D14">
         <v>2014</v>
       </c>
       <c r="E14" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F14" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B15" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C15" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D15">
         <v>2016</v>
       </c>
       <c r="E15" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F15" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B16" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C16" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D16">
         <v>2016</v>
       </c>
       <c r="E16" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C17" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D17">
         <v>2016</v>
       </c>
       <c r="E17" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F17" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B18" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C18" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D18">
         <v>2017</v>
       </c>
       <c r="E18" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F18" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B19" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C19" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F19" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C20" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D20">
         <v>2017</v>
       </c>
       <c r="E20" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B21" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C21" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D21">
         <v>2017</v>
       </c>
       <c r="E21" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F21" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B22" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C22" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D22">
         <v>2017</v>
       </c>
       <c r="E22" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B23" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C23" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D23">
         <v>2018</v>
       </c>
       <c r="E23" t="s">
+        <v>211</v>
+      </c>
+      <c r="F23" t="s">
+        <v>212</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="F23" t="s">
-        <v>215</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B24" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C24" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D24">
         <v>2018</v>
@@ -1930,41 +1939,41 @@
         <v>35</v>
       </c>
       <c r="F24" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B25" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C25" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D25">
         <v>2018</v>
       </c>
       <c r="E25" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B26" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C26" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D26">
         <v>2018</v>
@@ -1973,44 +1982,44 @@
         <v>35</v>
       </c>
       <c r="F26" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B27" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C27" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D27">
         <v>2019</v>
       </c>
       <c r="E27" t="s">
+        <v>169</v>
+      </c>
+      <c r="F27" t="s">
+        <v>171</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="F27" t="s">
-        <v>174</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B28" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C28" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D28">
         <v>2019</v>
@@ -2019,18 +2028,18 @@
         <v>151</v>
       </c>
       <c r="G28" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B29" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C29" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D29">
         <v>2019</v>
@@ -2039,98 +2048,104 @@
         <v>151</v>
       </c>
       <c r="G29" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B30" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C30" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D30">
         <v>2020</v>
       </c>
       <c r="E30" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F30" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B31" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C31" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D31">
         <v>2020</v>
       </c>
       <c r="E31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F31" t="s">
-        <v>297</v>
-      </c>
-      <c r="G31" t="s">
-        <v>296</v>
+        <v>291</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B32" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32" t="s">
         <v>156</v>
-      </c>
-      <c r="C32" t="s">
-        <v>158</v>
       </c>
       <c r="D32">
         <v>2020</v>
       </c>
       <c r="E32" t="s">
-        <v>172</v>
+        <v>169</v>
+      </c>
+      <c r="F32" t="s">
+        <v>319</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>160</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>302</v>
+        <v>163</v>
       </c>
       <c r="B33" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C33" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33" t="s">
-        <v>295</v>
+        <v>290</v>
+      </c>
+      <c r="F33" t="s">
+        <v>320</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>302</v>
+        <v>163</v>
       </c>
       <c r="B34" t="s">
         <v>148</v>
@@ -2142,21 +2157,24 @@
         <v>2021</v>
       </c>
       <c r="E34" t="s">
-        <v>225</v>
+        <v>222</v>
+      </c>
+      <c r="F34" t="s">
+        <v>321</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>154</v>
+        <v>314</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>302</v>
+        <v>163</v>
       </c>
       <c r="B35" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C35" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D35">
         <v>2021</v>
@@ -2164,39 +2182,42 @@
       <c r="E35" t="s">
         <v>35</v>
       </c>
+      <c r="F35" t="s">
+        <v>322</v>
+      </c>
       <c r="G35" s="1" t="s">
-        <v>153</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>302</v>
+        <v>163</v>
       </c>
       <c r="B36" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C36" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D36">
         <v>2021</v>
       </c>
       <c r="E36" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="B37" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C37" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D37">
         <v>2020</v>
@@ -2205,43 +2226,44 @@
         <v>151</v>
       </c>
       <c r="G37" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G35" r:id="rId1" xr:uid="{68DDD81A-3CE6-4D48-B07B-3FA587DAA0EF}"/>
-    <hyperlink ref="G34" r:id="rId2" xr:uid="{AAE2C6FC-A8EF-3742-BF8C-3E5E3CB56003}"/>
-    <hyperlink ref="G32" r:id="rId3" xr:uid="{B141FD81-723B-714C-B729-8B9994B01FAA}"/>
-    <hyperlink ref="G30" r:id="rId4" xr:uid="{45942973-9C5B-5C49-8E0E-73A2BAA4D28E}"/>
-    <hyperlink ref="G27" r:id="rId5" xr:uid="{54AFFC4F-02C1-A147-B9BB-2C12B999CD3F}"/>
-    <hyperlink ref="G26" r:id="rId6" xr:uid="{9E24C7C4-EA59-E840-AD41-8AA490E9807A}"/>
-    <hyperlink ref="G25" r:id="rId7" xr:uid="{2A138BC8-6371-F449-AAD6-3853D57719F5}"/>
-    <hyperlink ref="G24" r:id="rId8" xr:uid="{10388BC7-F90B-7F4B-834C-57C020FB1E87}"/>
-    <hyperlink ref="G22" r:id="rId9" xr:uid="{CDAF39F0-7855-B94A-ADB3-736C0F00C272}"/>
-    <hyperlink ref="G21" r:id="rId10" xr:uid="{359B8240-E550-984D-AE54-20C94C296A73}"/>
-    <hyperlink ref="G20" r:id="rId11" xr:uid="{72D870C2-9231-CB49-B028-108FC14CFBA6}"/>
-    <hyperlink ref="G19" r:id="rId12" xr:uid="{ED7CD363-EC05-5F41-8F5F-C76C76C11D0F}"/>
-    <hyperlink ref="G17" r:id="rId13" xr:uid="{F8AA907C-D007-E247-B212-7A124A587256}"/>
-    <hyperlink ref="G16" r:id="rId14" xr:uid="{2EE538B5-1D5F-4B47-865D-B41E619EED88}"/>
-    <hyperlink ref="G23" r:id="rId15" xr:uid="{8D327EC1-9629-ED4B-9861-80C8005C1BC9}"/>
-    <hyperlink ref="G15" r:id="rId16" xr:uid="{F194B9BB-D1F2-C04F-B334-F957C7FE214D}"/>
-    <hyperlink ref="G18" r:id="rId17" xr:uid="{6B4D3FC6-CBBB-264C-8159-2709E11863C4}"/>
-    <hyperlink ref="G13" r:id="rId18" xr:uid="{ED668A75-FE8E-994B-BEA7-F052AFB8C0EA}"/>
-    <hyperlink ref="G12" r:id="rId19" xr:uid="{68945279-32B0-8B4C-9D2C-4F919AC39821}"/>
-    <hyperlink ref="G14" r:id="rId20" xr:uid="{8F70E081-6CFE-9442-9E37-9C8E066B4280}"/>
-    <hyperlink ref="G11" r:id="rId21" xr:uid="{2ACD1F8A-6AB7-534F-89B7-860497644A90}"/>
-    <hyperlink ref="G10" r:id="rId22" xr:uid="{02DFDAD8-3078-1342-AE1C-7599CC96ADB5}"/>
-    <hyperlink ref="G9" r:id="rId23" xr:uid="{03292DF2-01B0-0547-AFBF-4DCFC68BCA43}"/>
-    <hyperlink ref="G8" r:id="rId24" xr:uid="{4426C169-4546-6D44-8A56-1F7DFE740E9F}"/>
-    <hyperlink ref="G7" r:id="rId25" xr:uid="{4CA84CFC-00FC-614F-968F-9F17BC5B131E}"/>
-    <hyperlink ref="G6" r:id="rId26" xr:uid="{75EE9926-88DC-6B42-A2D5-C29D7EC355E2}"/>
-    <hyperlink ref="G5" r:id="rId27" xr:uid="{50D3D1D4-C79E-7343-83E7-360080F804D1}"/>
-    <hyperlink ref="G4" r:id="rId28" xr:uid="{4E06EB98-A16A-5440-B604-68B41286E37E}"/>
-    <hyperlink ref="G3" r:id="rId29" xr:uid="{79FA9F8C-B50B-9A45-AB12-7B8902450FEE}"/>
-    <hyperlink ref="G2" r:id="rId30" xr:uid="{6E3F39B4-F9C2-2E49-A744-DE4788D59A56}"/>
-    <hyperlink ref="G36" r:id="rId31" xr:uid="{5524E091-EA10-5B42-AC63-A8D32A2E716B}"/>
-    <hyperlink ref="G33" r:id="rId32" xr:uid="{80FBEAC3-3A31-D443-9887-CEBBB867E665}"/>
+    <hyperlink ref="G30" r:id="rId1" xr:uid="{45942973-9C5B-5C49-8E0E-73A2BAA4D28E}"/>
+    <hyperlink ref="G27" r:id="rId2" xr:uid="{54AFFC4F-02C1-A147-B9BB-2C12B999CD3F}"/>
+    <hyperlink ref="G26" r:id="rId3" xr:uid="{9E24C7C4-EA59-E840-AD41-8AA490E9807A}"/>
+    <hyperlink ref="G25" r:id="rId4" xr:uid="{2A138BC8-6371-F449-AAD6-3853D57719F5}"/>
+    <hyperlink ref="G24" r:id="rId5" xr:uid="{10388BC7-F90B-7F4B-834C-57C020FB1E87}"/>
+    <hyperlink ref="G22" r:id="rId6" xr:uid="{CDAF39F0-7855-B94A-ADB3-736C0F00C272}"/>
+    <hyperlink ref="G21" r:id="rId7" xr:uid="{359B8240-E550-984D-AE54-20C94C296A73}"/>
+    <hyperlink ref="G20" r:id="rId8" xr:uid="{72D870C2-9231-CB49-B028-108FC14CFBA6}"/>
+    <hyperlink ref="G19" r:id="rId9" xr:uid="{ED7CD363-EC05-5F41-8F5F-C76C76C11D0F}"/>
+    <hyperlink ref="G17" r:id="rId10" xr:uid="{F8AA907C-D007-E247-B212-7A124A587256}"/>
+    <hyperlink ref="G16" r:id="rId11" xr:uid="{2EE538B5-1D5F-4B47-865D-B41E619EED88}"/>
+    <hyperlink ref="G23" r:id="rId12" xr:uid="{8D327EC1-9629-ED4B-9861-80C8005C1BC9}"/>
+    <hyperlink ref="G15" r:id="rId13" xr:uid="{F194B9BB-D1F2-C04F-B334-F957C7FE214D}"/>
+    <hyperlink ref="G18" r:id="rId14" xr:uid="{6B4D3FC6-CBBB-264C-8159-2709E11863C4}"/>
+    <hyperlink ref="G13" r:id="rId15" xr:uid="{ED668A75-FE8E-994B-BEA7-F052AFB8C0EA}"/>
+    <hyperlink ref="G12" r:id="rId16" xr:uid="{68945279-32B0-8B4C-9D2C-4F919AC39821}"/>
+    <hyperlink ref="G14" r:id="rId17" xr:uid="{8F70E081-6CFE-9442-9E37-9C8E066B4280}"/>
+    <hyperlink ref="G11" r:id="rId18" xr:uid="{2ACD1F8A-6AB7-534F-89B7-860497644A90}"/>
+    <hyperlink ref="G10" r:id="rId19" xr:uid="{02DFDAD8-3078-1342-AE1C-7599CC96ADB5}"/>
+    <hyperlink ref="G9" r:id="rId20" xr:uid="{03292DF2-01B0-0547-AFBF-4DCFC68BCA43}"/>
+    <hyperlink ref="G8" r:id="rId21" xr:uid="{4426C169-4546-6D44-8A56-1F7DFE740E9F}"/>
+    <hyperlink ref="G7" r:id="rId22" xr:uid="{4CA84CFC-00FC-614F-968F-9F17BC5B131E}"/>
+    <hyperlink ref="G6" r:id="rId23" xr:uid="{75EE9926-88DC-6B42-A2D5-C29D7EC355E2}"/>
+    <hyperlink ref="G5" r:id="rId24" xr:uid="{50D3D1D4-C79E-7343-83E7-360080F804D1}"/>
+    <hyperlink ref="G4" r:id="rId25" xr:uid="{4E06EB98-A16A-5440-B604-68B41286E37E}"/>
+    <hyperlink ref="G3" r:id="rId26" xr:uid="{79FA9F8C-B50B-9A45-AB12-7B8902450FEE}"/>
+    <hyperlink ref="G2" r:id="rId27" xr:uid="{6E3F39B4-F9C2-2E49-A744-DE4788D59A56}"/>
+    <hyperlink ref="G36" r:id="rId28" xr:uid="{5524E091-EA10-5B42-AC63-A8D32A2E716B}"/>
+    <hyperlink ref="G34" r:id="rId29" xr:uid="{8661FD4F-242E-B944-A397-C44179D6F2D2}"/>
+    <hyperlink ref="G32" r:id="rId30" xr:uid="{2874EF65-AE67-B842-86CC-22144CE935A9}"/>
+    <hyperlink ref="G33" r:id="rId31" xr:uid="{EA1980CC-7984-6A49-982C-61E49E79654C}"/>
+    <hyperlink ref="G35" r:id="rId32" xr:uid="{8C00C4E5-1709-2349-8C9D-3E025C943879}"/>
+    <hyperlink ref="G31" r:id="rId33" xr:uid="{F10C0FAD-F8FD-BD43-AC40-575582642BD8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2397,22 +2419,22 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="E6" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -2472,7 +2494,7 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="E9" t="s">
         <v>82</v>
@@ -2492,7 +2514,7 @@
         <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E10" t="s">
         <v>83</v>
@@ -2520,19 +2542,19 @@
         <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C12" t="s">
         <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="E12" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -2623,10 +2645,10 @@
         <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D17" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E17" t="s">
         <v>74</v>
@@ -2697,7 +2719,7 @@
         <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E21" t="s">
         <v>92</v>
@@ -2905,7 +2927,7 @@
         <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2927,7 +2949,7 @@
         <v>120</v>
       </c>
       <c r="C4" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2938,7 +2960,7 @@
         <v>122</v>
       </c>
       <c r="C5" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2949,7 +2971,7 @@
         <v>121</v>
       </c>
       <c r="C6" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/source/pages.xlsx
+++ b/source/pages.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harmsm/work/admin/website/website/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADAED5A-E4E5-1D42-BD0F-EB72308A0C35}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E744E1-9018-FC4C-A072-1F316652ABF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30220" yWindow="-360" windowWidth="28800" windowHeight="17500" xr2:uid="{A8B7147D-77A5-1347-9728-F2522D06E352}"/>
+    <workbookView xWindow="-30220" yWindow="-360" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{A8B7147D-77A5-1347-9728-F2522D06E352}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="328">
   <si>
     <t>Evolution of innate immune proteins</t>
   </si>
@@ -956,9 +956,6 @@
     <t>https://www.linkedin.com/in/kona-orlandi</t>
   </si>
   <si>
-    <t xml:space="preserve">Lupo BE, Chu P; Harms MJ; Morrison EA; Musselman CA </t>
-  </si>
-  <si>
     <t>Evolutionary conservation of structural and functional coupling between the BRM AT-hook and bromodomain</t>
   </si>
   <si>
@@ -1005,6 +1002,24 @@
   </si>
   <si>
     <t>60(3):170–181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lupo BE, Chu P, Harms MJ; Morrison EA; Musselman CA </t>
+  </si>
+  <si>
+    <t>A conserved folding nucleus sculpts the free energy landscape of bacterial and archaeal orthologs from a divergent TIM barrel family</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1073/pnas.2019571118</t>
+  </si>
+  <si>
+    <t>166845</t>
+  </si>
+  <si>
+    <t>118(17):e2019571118</t>
+  </si>
+  <si>
+    <t>Jain R, Muneeruddin K, Anderson J, Harms MJ,Shaffer SA,Matthews CR</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1071,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1064,6 +1079,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1379,10 +1395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC076B7-4CEB-C143-9E7B-9F55AFCD75D9}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2013,7 +2029,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B28" t="s">
         <v>155</v>
@@ -2033,13 +2049,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>308</v>
+      </c>
+      <c r="B29" t="s">
         <v>309</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>310</v>
-      </c>
-      <c r="C29" t="s">
-        <v>311</v>
       </c>
       <c r="D29">
         <v>2019</v>
@@ -2048,7 +2064,7 @@
         <v>151</v>
       </c>
       <c r="G29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -2094,7 +2110,7 @@
         <v>291</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -2114,7 +2130,7 @@
         <v>169</v>
       </c>
       <c r="F32" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>292</v>
@@ -2137,10 +2153,10 @@
         <v>290</v>
       </c>
       <c r="F33" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -2160,10 +2176,10 @@
         <v>222</v>
       </c>
       <c r="F34" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -2183,10 +2199,10 @@
         <v>35</v>
       </c>
       <c r="F35" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -2194,10 +2210,10 @@
         <v>163</v>
       </c>
       <c r="B36" t="s">
+        <v>322</v>
+      </c>
+      <c r="C36" t="s">
         <v>306</v>
-      </c>
-      <c r="C36" t="s">
-        <v>307</v>
       </c>
       <c r="D36">
         <v>2021</v>
@@ -2205,28 +2221,54 @@
       <c r="E36" t="s">
         <v>245</v>
       </c>
+      <c r="F36" s="5" t="s">
+        <v>325</v>
+      </c>
       <c r="G36" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>313</v>
+        <v>163</v>
       </c>
       <c r="B37" t="s">
+        <v>327</v>
+      </c>
+      <c r="C37" t="s">
+        <v>323</v>
+      </c>
+      <c r="D37">
+        <v>2021</v>
+      </c>
+      <c r="E37" t="s">
+        <v>190</v>
+      </c>
+      <c r="F37" t="s">
+        <v>326</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>312</v>
+      </c>
+      <c r="B38" t="s">
         <v>294</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>295</v>
       </c>
-      <c r="D37">
+      <c r="D38">
         <v>2020</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E38" t="s">
         <v>151</v>
       </c>
-      <c r="G37" t="s">
-        <v>308</v>
+      <c r="G38" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -2264,6 +2306,7 @@
     <hyperlink ref="G33" r:id="rId31" xr:uid="{EA1980CC-7984-6A49-982C-61E49E79654C}"/>
     <hyperlink ref="G35" r:id="rId32" xr:uid="{8C00C4E5-1709-2349-8C9D-3E025C943879}"/>
     <hyperlink ref="G31" r:id="rId33" xr:uid="{F10C0FAD-F8FD-BD43-AC40-575582642BD8}"/>
+    <hyperlink ref="G37" r:id="rId34" xr:uid="{05A31E51-E542-2E4D-BF23-E76318417D1C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2983,7 +3026,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3542A6-E913-9542-A96C-9442386D9751}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>

--- a/source/pages.xlsx
+++ b/source/pages.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harmsm/work/admin/website/website/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E744E1-9018-FC4C-A072-1F316652ABF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477203F3-8F22-C842-A15E-3B95DCAD3F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30220" yWindow="-360" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{A8B7147D-77A5-1347-9728-F2522D06E352}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{A8B7147D-77A5-1347-9728-F2522D06E352}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="347">
   <si>
     <t>Evolution of innate immune proteins</t>
   </si>
@@ -86,9 +86,6 @@
     <t>PhD student</t>
   </si>
   <si>
-    <t>Experimental studies of sequence space</t>
-  </si>
-  <si>
     <t>https://twitter.com/angraliese</t>
   </si>
   <si>
@@ -257,9 +254,6 @@
     <t>nfrantz@uoregon.edu</t>
   </si>
   <si>
-    <t>Experimental studies of biophysical basis of high-order epistasis</t>
-  </si>
-  <si>
     <t>anderson_circle_150x150.png</t>
   </si>
   <si>
@@ -932,9 +926,6 @@
     <t>Evolution of S100A9 proinflammatory activity</t>
   </si>
   <si>
-    <t>Role of CD14 in S100A9 activation of TLR4</t>
-  </si>
-  <si>
     <t>yin_circle_150x150.png</t>
   </si>
   <si>
@@ -959,9 +950,6 @@
     <t>Evolutionary conservation of structural and functional coupling between the BRM AT-hook and bromodomain</t>
   </si>
   <si>
-    <t>https://www.biorxiv.org/content/10.1101/2020.10.14.339671v1.full</t>
-  </si>
-  <si>
     <t>preprint</t>
   </si>
   <si>
@@ -974,9 +962,6 @@
     <t>https://www.biorxiv.org/content/10.1101/796219v1</t>
   </si>
   <si>
-    <t>second review</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1093/molbev/msab019</t>
   </si>
   <si>
@@ -1020,6 +1005,78 @@
   </si>
   <si>
     <t>Jain R, Muneeruddin K, Anderson J, Harms MJ,Shaffer SA,Matthews CR</t>
+  </si>
+  <si>
+    <t>Biochemistry (honors thesis), PhD student at Stanford</t>
+  </si>
+  <si>
+    <t>Biochemistry, med student at Iowa</t>
+  </si>
+  <si>
+    <t>Biochemistry, research tech at OHSU</t>
+  </si>
+  <si>
+    <t>Biochemistry (honors thesis), med student at OHSU</t>
+  </si>
+  <si>
+    <t>Biochemistry, PhD student at U. Georgia</t>
+  </si>
+  <si>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t>Undergrad, 2021</t>
+  </si>
+  <si>
+    <t>Biochemistry (honors thesis), med student at UNLV</t>
+  </si>
+  <si>
+    <t>PhD, 2021</t>
+  </si>
+  <si>
+    <t>Research scientist with Absci</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1093/genetics/iyab105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">219(1):iyab105 </t>
+  </si>
+  <si>
+    <t>NIH 1R01GM146114-01</t>
+  </si>
+  <si>
+    <t>https://reporter.nih.gov/search/oQSUJtgXTUOc3fplJIJnSw/project-details/10424163</t>
+  </si>
+  <si>
+    <t>Jose Sanchez-Borbon</t>
+  </si>
+  <si>
+    <t>Evolution of CD14 in fishes</t>
+  </si>
+  <si>
+    <t>Morrision AJ, Harms MJ</t>
+  </si>
+  <si>
+    <t>Wonderlick DR, Widom JR, Harms MJ</t>
+  </si>
+  <si>
+    <t>Disentangling contact and ensemble epistasis in a riboswitch</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1101/2022.10.27.514099</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1101/2022.10.14.512271</t>
+  </si>
+  <si>
+    <t>An experimental demonstration of ensemble epistasis in the lac repressor</t>
+  </si>
+  <si>
+    <t>sanchez-borbon_circle_150x150.png</t>
+  </si>
+  <si>
+    <t>jsanche8@uoregon.edu</t>
   </si>
 </sst>
 </file>
@@ -1395,10 +1452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC076B7-4CEB-C143-9E7B-9F55AFCD75D9}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1414,861 +1471,904 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" t="s">
         <v>150</v>
       </c>
-      <c r="F1" t="s">
-        <v>152</v>
-      </c>
       <c r="G1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D2">
         <v>2003</v>
       </c>
       <c r="E2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D3">
         <v>2005</v>
       </c>
       <c r="E3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D4">
         <v>2008</v>
       </c>
       <c r="E4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D5">
         <v>2009</v>
       </c>
       <c r="E5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D6">
         <v>2010</v>
       </c>
       <c r="E6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D7">
         <v>2010</v>
       </c>
       <c r="E7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D8">
         <v>2011</v>
       </c>
       <c r="E8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D9">
         <v>2012</v>
       </c>
       <c r="E9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F9" t="s">
+        <v>248</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D10">
         <v>2013</v>
       </c>
       <c r="E10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F10" t="s">
+        <v>244</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="F10" t="s">
-        <v>246</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D11">
         <v>2013</v>
       </c>
       <c r="E11" t="s">
+        <v>238</v>
+      </c>
+      <c r="F11" t="s">
+        <v>239</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="F11" t="s">
-        <v>241</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D12">
         <v>2013</v>
       </c>
       <c r="E12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D13">
         <v>2014</v>
       </c>
       <c r="E13" t="s">
+        <v>229</v>
+      </c>
+      <c r="F13" t="s">
+        <v>230</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="F13" t="s">
-        <v>232</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C14" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D14">
         <v>2014</v>
       </c>
       <c r="E14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D15">
         <v>2016</v>
       </c>
       <c r="E15" t="s">
+        <v>215</v>
+      </c>
+      <c r="F15" t="s">
+        <v>216</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="F15" t="s">
-        <v>218</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D16">
         <v>2016</v>
       </c>
       <c r="E16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D17">
         <v>2016</v>
       </c>
       <c r="E17" t="s">
+        <v>201</v>
+      </c>
+      <c r="F17" t="s">
+        <v>202</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="F17" t="s">
-        <v>204</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D18">
         <v>2017</v>
       </c>
       <c r="E18" t="s">
+        <v>220</v>
+      </c>
+      <c r="F18" t="s">
+        <v>221</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="F18" t="s">
-        <v>223</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19" t="s">
+        <v>196</v>
+      </c>
+      <c r="F19" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="F19" t="s">
-        <v>199</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D20">
         <v>2017</v>
       </c>
       <c r="E20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B21" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D21">
         <v>2017</v>
       </c>
       <c r="E21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F21" t="s">
+        <v>189</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="F21" t="s">
-        <v>191</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D22">
         <v>2017</v>
       </c>
       <c r="E22" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D23">
         <v>2018</v>
       </c>
       <c r="E23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F23" t="s">
+        <v>210</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B24" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C24" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D24">
         <v>2018</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F24" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B25" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C25" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D25">
         <v>2018</v>
       </c>
       <c r="E25" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C26" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D26">
         <v>2018</v>
       </c>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F26" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B27" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C27" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D27">
         <v>2019</v>
       </c>
       <c r="E27" t="s">
+        <v>167</v>
+      </c>
+      <c r="F27" t="s">
         <v>169</v>
       </c>
-      <c r="F27" t="s">
-        <v>171</v>
-      </c>
       <c r="G27" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B28" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D28">
         <v>2019</v>
       </c>
       <c r="E28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G28" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B29" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C29" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D29">
         <v>2019</v>
       </c>
       <c r="E29" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G29" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B30" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D30">
         <v>2020</v>
       </c>
       <c r="E30" t="s">
+        <v>162</v>
+      </c>
+      <c r="F30" t="s">
+        <v>163</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="F30" t="s">
-        <v>165</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D31">
         <v>2020</v>
       </c>
       <c r="E31" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F31" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B32" t="s">
+        <v>152</v>
+      </c>
+      <c r="C32" t="s">
         <v>154</v>
-      </c>
-      <c r="C32" t="s">
-        <v>156</v>
       </c>
       <c r="D32">
         <v>2020</v>
       </c>
       <c r="E32" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F32" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B33" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C33" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F33" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B34" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C34" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D34">
         <v>2021</v>
       </c>
       <c r="E34" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F34" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B35" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C35" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D35">
         <v>2021</v>
       </c>
       <c r="E35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B36" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C36" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D36">
         <v>2021</v>
       </c>
       <c r="E36" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B37" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C37" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D37">
         <v>2021</v>
       </c>
       <c r="E37" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F37" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>312</v>
+        <v>161</v>
       </c>
       <c r="B38" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C38" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D38">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E38" t="s">
-        <v>151</v>
-      </c>
-      <c r="G38" t="s">
-        <v>307</v>
+        <v>196</v>
+      </c>
+      <c r="F38" t="s">
+        <v>334</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>304</v>
+      </c>
+      <c r="B39" t="s">
+        <v>340</v>
+      </c>
+      <c r="C39" t="s">
+        <v>341</v>
+      </c>
+      <c r="D39">
+        <v>2022</v>
+      </c>
+      <c r="E39" t="s">
+        <v>149</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>304</v>
+      </c>
+      <c r="B40" t="s">
+        <v>339</v>
+      </c>
+      <c r="C40" t="s">
+        <v>344</v>
+      </c>
+      <c r="D40">
+        <v>2022</v>
+      </c>
+      <c r="E40" t="s">
+        <v>149</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -2307,6 +2407,9 @@
     <hyperlink ref="G35" r:id="rId32" xr:uid="{8C00C4E5-1709-2349-8C9D-3E025C943879}"/>
     <hyperlink ref="G31" r:id="rId33" xr:uid="{F10C0FAD-F8FD-BD43-AC40-575582642BD8}"/>
     <hyperlink ref="G37" r:id="rId34" xr:uid="{05A31E51-E542-2E4D-BF23-E76318417D1C}"/>
+    <hyperlink ref="G38" r:id="rId35" xr:uid="{A83E1A5F-F28D-9D48-B99B-2A40390E67E4}"/>
+    <hyperlink ref="G39" r:id="rId36" xr:uid="{D23694B0-2E8C-5C4D-AA39-FFA20FA00800}"/>
+    <hyperlink ref="G40" r:id="rId37" xr:uid="{1654A9D4-65E8-9F4F-8DE2-4A51E8C5F1FA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2314,10 +2417,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A604AB1-DDFC-4B40-85A4-D0BC5335EE4C}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2335,7 +2438,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2359,15 +2462,15 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -2379,7 +2482,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -2393,91 +2496,91 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
+      <c r="H4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>298</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>299</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>300</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" t="s">
-        <v>21</v>
+        <v>301</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>301</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>302</v>
+        <v>106</v>
       </c>
       <c r="E6" t="s">
-        <v>303</v>
+        <v>77</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>305</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -2485,65 +2588,65 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E7" t="s">
         <v>79</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="H7" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>295</v>
       </c>
       <c r="E8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>111</v>
-      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>337</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>297</v>
+        <v>338</v>
       </c>
       <c r="E9" t="s">
-        <v>82</v>
+        <v>345</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>104</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -2551,16 +2654,19 @@
         <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>294</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E10" t="s">
-        <v>83</v>
+        <v>296</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -2568,16 +2674,19 @@
         <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>331</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>332</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>74</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -2585,352 +2694,370 @@
         <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>296</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>329</v>
       </c>
       <c r="D12" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="E12" t="s">
-        <v>299</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>300</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>329</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>323</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
         <v>30</v>
       </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
+        <v>83</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>324</v>
       </c>
       <c r="E15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>325</v>
       </c>
       <c r="E16" t="s">
-        <v>86</v>
-      </c>
-      <c r="H16" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
         <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>281</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>289</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" t="s">
-        <v>62</v>
+        <v>84</v>
+      </c>
+      <c r="H17" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>279</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>287</v>
       </c>
       <c r="E18" t="s">
-        <v>90</v>
+        <v>72</v>
+      </c>
+      <c r="F18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
         <v>44</v>
       </c>
-      <c r="D21" t="s">
-        <v>288</v>
-      </c>
       <c r="E21" t="s">
-        <v>92</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" t="s">
-        <v>64</v>
-      </c>
-      <c r="H21" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>286</v>
       </c>
       <c r="E22" t="s">
-        <v>93</v>
+        <v>90</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="G22" t="s">
-        <v>66</v>
+        <v>63</v>
+      </c>
+      <c r="H22" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>326</v>
       </c>
       <c r="E23" t="s">
-        <v>94</v>
-      </c>
-      <c r="F23" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>68</v>
+        <v>91</v>
+      </c>
+      <c r="G23" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E24" t="s">
-        <v>95</v>
+        <v>92</v>
+      </c>
+      <c r="F24" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>327</v>
       </c>
       <c r="E25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>97</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G26" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" t="s">
         <v>34</v>
       </c>
-      <c r="D27" t="s">
-        <v>41</v>
-      </c>
       <c r="E27" t="s">
-        <v>98</v>
+        <v>95</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="D28" t="s">
+        <v>40</v>
       </c>
       <c r="E28" t="s">
-        <v>99</v>
-      </c>
-      <c r="F28" t="s">
-        <v>71</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" t="s">
+        <v>328</v>
+      </c>
+      <c r="E29" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{1DE0CD26-AAF6-C14D-AC57-1E20477BBEF9}"/>
     <hyperlink ref="G2" r:id="rId2" xr:uid="{4B69F9D1-9BDC-3B49-95D5-B892E0F38E93}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{F297B546-961A-904C-8B57-270571840D4C}"/>
-    <hyperlink ref="H5" r:id="rId4" xr:uid="{82F2EFE6-4E28-F34E-B218-DAA2AC17ECFE}"/>
-    <hyperlink ref="G23" r:id="rId5" xr:uid="{B5F9801A-D1FF-F945-B5EA-A95297A9AC9E}"/>
-    <hyperlink ref="F26" r:id="rId6" xr:uid="{7C843EC2-4C8D-4641-BB36-2B0270ADEE55}"/>
+    <hyperlink ref="G11" r:id="rId3" xr:uid="{F297B546-961A-904C-8B57-270571840D4C}"/>
+    <hyperlink ref="H4" r:id="rId4" xr:uid="{82F2EFE6-4E28-F34E-B218-DAA2AC17ECFE}"/>
+    <hyperlink ref="G24" r:id="rId5" xr:uid="{B5F9801A-D1FF-F945-B5EA-A95297A9AC9E}"/>
+    <hyperlink ref="F27" r:id="rId6" xr:uid="{7C843EC2-4C8D-4641-BB36-2B0270ADEE55}"/>
     <hyperlink ref="H3" r:id="rId7" xr:uid="{B1C6FFD0-CEC7-F545-85D8-C469FD54EC40}"/>
-    <hyperlink ref="H7" r:id="rId8" xr:uid="{0B982E49-986A-0941-8C32-ADEAA21D9033}"/>
-    <hyperlink ref="H8" r:id="rId9" xr:uid="{82A7CA40-D4B3-CD48-B0DD-40DB2C17FB15}"/>
-    <hyperlink ref="F8" r:id="rId10" xr:uid="{DBABC5AF-727A-5F45-976D-9D37304F647C}"/>
-    <hyperlink ref="H9" r:id="rId11" xr:uid="{D81BC1A6-DB5E-2442-8092-0DCC05080E7B}"/>
-    <hyperlink ref="F13" r:id="rId12" xr:uid="{671646BC-4048-784B-A41A-EE3B6A5872DF}"/>
-    <hyperlink ref="G13" r:id="rId13" xr:uid="{520C3AB8-D98F-5A41-A791-18E65C05A26D}"/>
-    <hyperlink ref="H13" r:id="rId14" xr:uid="{AC194642-8CCA-D045-8B43-2E593C852C84}"/>
-    <hyperlink ref="J8" r:id="rId15" xr:uid="{7AD87150-852A-EC48-8A33-35899592670A}"/>
-    <hyperlink ref="H12" r:id="rId16" display="mailto:Jyin5@uoregon.edu" xr:uid="{BD89C2C8-01DA-0945-8C45-44FC2597E1A0}"/>
-    <hyperlink ref="H6" r:id="rId17" display="mailto:konao@uoregon.edu" xr:uid="{99A77FB4-F7EA-7A4E-A1D6-82B0846E355F}"/>
-    <hyperlink ref="J6" r:id="rId18" xr:uid="{72314501-811D-D043-997F-E392845F576D}"/>
+    <hyperlink ref="H6" r:id="rId8" xr:uid="{0B982E49-986A-0941-8C32-ADEAA21D9033}"/>
+    <hyperlink ref="H7" r:id="rId9" xr:uid="{82A7CA40-D4B3-CD48-B0DD-40DB2C17FB15}"/>
+    <hyperlink ref="F7" r:id="rId10" xr:uid="{DBABC5AF-727A-5F45-976D-9D37304F647C}"/>
+    <hyperlink ref="H8" r:id="rId11" xr:uid="{D81BC1A6-DB5E-2442-8092-0DCC05080E7B}"/>
+    <hyperlink ref="F14" r:id="rId12" xr:uid="{671646BC-4048-784B-A41A-EE3B6A5872DF}"/>
+    <hyperlink ref="G14" r:id="rId13" xr:uid="{520C3AB8-D98F-5A41-A791-18E65C05A26D}"/>
+    <hyperlink ref="H14" r:id="rId14" xr:uid="{AC194642-8CCA-D045-8B43-2E593C852C84}"/>
+    <hyperlink ref="J7" r:id="rId15" xr:uid="{7AD87150-852A-EC48-8A33-35899592670A}"/>
+    <hyperlink ref="H10" r:id="rId16" display="mailto:Jyin5@uoregon.edu" xr:uid="{BD89C2C8-01DA-0945-8C45-44FC2597E1A0}"/>
+    <hyperlink ref="H5" r:id="rId17" display="mailto:konao@uoregon.edu" xr:uid="{99A77FB4-F7EA-7A4E-A1D6-82B0846E355F}"/>
+    <hyperlink ref="J5" r:id="rId18" xr:uid="{72314501-811D-D043-997F-E392845F576D}"/>
+    <hyperlink ref="H9" r:id="rId19" xr:uid="{3B7DC98F-564E-8040-ABB3-24351F91CBD2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2941,7 +3068,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2959,62 +3086,62 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -3024,10 +3151,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3542A6-E913-9542-A96C-9442386D9751}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3040,7 +3167,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3049,10 +3176,10 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3060,13 +3187,13 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -3074,16 +3201,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -3091,16 +3218,16 @@
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -3108,16 +3235,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -3125,16 +3252,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -3142,16 +3269,16 @@
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -3159,16 +3286,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -3176,31 +3303,46 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>335</v>
+      </c>
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1" xr:uid="{F5F81F00-4A48-B44A-BD52-88612B94C26E}"/>
-    <hyperlink ref="D9" r:id="rId2" xr:uid="{ACB08C35-1135-A544-B65E-D933BD64AD2A}"/>
-    <hyperlink ref="D2" r:id="rId3" xr:uid="{F31A85CF-9331-FE4D-B671-01B66321E979}"/>
-    <hyperlink ref="D3" r:id="rId4" xr:uid="{AF2C5B58-BC33-184F-AE7A-D4EAAAB1B3E3}"/>
-    <hyperlink ref="D4" r:id="rId5" xr:uid="{3867D2A3-A0CA-014C-A7ED-BD6445E778F1}"/>
-    <hyperlink ref="D5" r:id="rId6" xr:uid="{AFBACD63-4631-8344-86F4-BE79CAC496BC}"/>
-    <hyperlink ref="D6" r:id="rId7" xr:uid="{B60A3D76-9330-234B-8E3B-C21AA5A087BA}"/>
-    <hyperlink ref="D7" r:id="rId8" xr:uid="{B6855282-A237-EE4D-9F63-3879B8BD555D}"/>
+    <hyperlink ref="D9" r:id="rId1" xr:uid="{ACB08C35-1135-A544-B65E-D933BD64AD2A}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{F31A85CF-9331-FE4D-B671-01B66321E979}"/>
+    <hyperlink ref="D7" r:id="rId3" xr:uid="{B6855282-A237-EE4D-9F63-3879B8BD555D}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{B60A3D76-9330-234B-8E3B-C21AA5A087BA}"/>
+    <hyperlink ref="D5" r:id="rId5" xr:uid="{AFBACD63-4631-8344-86F4-BE79CAC496BC}"/>
+    <hyperlink ref="D4" r:id="rId6" xr:uid="{3867D2A3-A0CA-014C-A7ED-BD6445E778F1}"/>
+    <hyperlink ref="D3" r:id="rId7" xr:uid="{AF2C5B58-BC33-184F-AE7A-D4EAAAB1B3E3}"/>
+    <hyperlink ref="D8" r:id="rId8" xr:uid="{F5F81F00-4A48-B44A-BD52-88612B94C26E}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{FDADF2A2-B2EF-C548-A76B-10AF07D5E9EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/source/pages.xlsx
+++ b/source/pages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harmsm/work/admin/website/website/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477203F3-8F22-C842-A15E-3B95DCAD3F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32775E7-FF8F-B744-A3C8-868171FD9277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{A8B7147D-77A5-1347-9728-F2522D06E352}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{A8B7147D-77A5-1347-9728-F2522D06E352}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="351">
   <si>
     <t>Evolution of innate immune proteins</t>
   </si>
@@ -1077,6 +1077,18 @@
   </si>
   <si>
     <t>jsanche8@uoregon.edu</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1073/pnas.2208029119</t>
+  </si>
+  <si>
+    <t>119 (41) e2208029119</t>
+  </si>
+  <si>
+    <t>Evolution avoids a pathological stabilizing interaction in the immune protein S100A9</t>
+  </si>
+  <si>
+    <t>Harman JL, Reardon PN, Costello SM, Warren GD, Phillips SR, Connor PJ, Marqusee S, Harms MJ</t>
   </si>
 </sst>
 </file>
@@ -1452,10 +1464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC076B7-4CEB-C143-9E7B-9F55AFCD75D9}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2333,22 +2345,25 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>304</v>
+        <v>161</v>
       </c>
       <c r="B39" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="C39" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="D39">
         <v>2022</v>
       </c>
       <c r="E39" t="s">
-        <v>149</v>
+        <v>188</v>
+      </c>
+      <c r="F39" t="s">
+        <v>348</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -2356,10 +2371,10 @@
         <v>304</v>
       </c>
       <c r="B40" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C40" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D40">
         <v>2022</v>
@@ -2368,6 +2383,26 @@
         <v>149</v>
       </c>
       <c r="G40" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>304</v>
+      </c>
+      <c r="B41" t="s">
+        <v>339</v>
+      </c>
+      <c r="C41" t="s">
+        <v>344</v>
+      </c>
+      <c r="D41">
+        <v>2022</v>
+      </c>
+      <c r="E41" t="s">
+        <v>149</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>343</v>
       </c>
     </row>
@@ -2408,8 +2443,9 @@
     <hyperlink ref="G31" r:id="rId33" xr:uid="{F10C0FAD-F8FD-BD43-AC40-575582642BD8}"/>
     <hyperlink ref="G37" r:id="rId34" xr:uid="{05A31E51-E542-2E4D-BF23-E76318417D1C}"/>
     <hyperlink ref="G38" r:id="rId35" xr:uid="{A83E1A5F-F28D-9D48-B99B-2A40390E67E4}"/>
-    <hyperlink ref="G39" r:id="rId36" xr:uid="{D23694B0-2E8C-5C4D-AA39-FFA20FA00800}"/>
-    <hyperlink ref="G40" r:id="rId37" xr:uid="{1654A9D4-65E8-9F4F-8DE2-4A51E8C5F1FA}"/>
+    <hyperlink ref="G40" r:id="rId36" xr:uid="{D23694B0-2E8C-5C4D-AA39-FFA20FA00800}"/>
+    <hyperlink ref="G41" r:id="rId37" xr:uid="{1654A9D4-65E8-9F4F-8DE2-4A51E8C5F1FA}"/>
+    <hyperlink ref="G39" r:id="rId38" xr:uid="{322824A7-B8BE-CE4A-9140-04CF199293F0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2419,7 +2455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A604AB1-DDFC-4B40-85A4-D0BC5335EE4C}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>

--- a/source/pages.xlsx
+++ b/source/pages.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harmsm/work/admin/website/website/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32775E7-FF8F-B744-A3C8-868171FD9277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C70476-6FFE-4341-9E7C-705199B7A39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{A8B7147D-77A5-1347-9728-F2522D06E352}"/>
+    <workbookView xWindow="-34080" yWindow="2540" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{A8B7147D-77A5-1347-9728-F2522D06E352}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="363">
   <si>
     <t>Evolution of innate immune proteins</t>
   </si>
@@ -1052,9 +1052,6 @@
     <t>Jose Sanchez-Borbon</t>
   </si>
   <si>
-    <t>Evolution of CD14 in fishes</t>
-  </si>
-  <si>
     <t>Morrision AJ, Harms MJ</t>
   </si>
   <si>
@@ -1089,6 +1086,45 @@
   </si>
   <si>
     <t>Harman JL, Reardon PN, Costello SM, Warren GD, Phillips SR, Connor PJ, Marqusee S, Harms MJ</t>
+  </si>
+  <si>
+    <t>How did the CD14 LPS binding site evolve?</t>
+  </si>
+  <si>
+    <t>in press</t>
+  </si>
+  <si>
+    <t>Topiary: pruning the manual labor from ancestral sequence reconstruction</t>
+  </si>
+  <si>
+    <t>Orlandi KN, Phillips SR, Sailer ZR, Harman JL, Harms MJ</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/pro.4551</t>
+  </si>
+  <si>
+    <t>Morin MA, Morrison AJ, Harms MJ, Dutton RJ</t>
+  </si>
+  <si>
+    <t>Higher-order interactions shape microbial interactions as microbial community complexity increases</t>
+  </si>
+  <si>
+    <t>Scientific Reports</t>
+  </si>
+  <si>
+    <t>12: 22640</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1038/s41598-022-25303-1</t>
+  </si>
+  <si>
+    <t>Biophysical Journal</t>
+  </si>
+  <si>
+    <t>mastadon</t>
+  </si>
+  <si>
+    <t>https://ecoevo.social/@EvolBiochemist</t>
   </si>
 </sst>
 </file>
@@ -1464,10 +1500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC076B7-4CEB-C143-9E7B-9F55AFCD75D9}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2348,10 +2384,10 @@
         <v>161</v>
       </c>
       <c r="B39" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C39" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D39">
         <v>2022</v>
@@ -2360,50 +2396,93 @@
         <v>188</v>
       </c>
       <c r="F39" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>304</v>
+        <v>161</v>
       </c>
       <c r="B40" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="C40" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="D40">
         <v>2022</v>
       </c>
       <c r="E40" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>304</v>
+        <v>161</v>
       </c>
       <c r="B41" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="C41" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="D41">
         <v>2022</v>
       </c>
       <c r="E41" t="s">
+        <v>357</v>
+      </c>
+      <c r="F41" t="s">
+        <v>358</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>351</v>
+      </c>
+      <c r="B42" t="s">
+        <v>339</v>
+      </c>
+      <c r="C42" t="s">
+        <v>340</v>
+      </c>
+      <c r="D42">
+        <v>2022</v>
+      </c>
+      <c r="E42" t="s">
+        <v>360</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>304</v>
+      </c>
+      <c r="B43" t="s">
+        <v>338</v>
+      </c>
+      <c r="C43" t="s">
+        <v>343</v>
+      </c>
+      <c r="D43">
+        <v>2022</v>
+      </c>
+      <c r="E43" t="s">
         <v>149</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>343</v>
+      <c r="G43" s="1" t="s">
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -2443,9 +2522,11 @@
     <hyperlink ref="G31" r:id="rId33" xr:uid="{F10C0FAD-F8FD-BD43-AC40-575582642BD8}"/>
     <hyperlink ref="G37" r:id="rId34" xr:uid="{05A31E51-E542-2E4D-BF23-E76318417D1C}"/>
     <hyperlink ref="G38" r:id="rId35" xr:uid="{A83E1A5F-F28D-9D48-B99B-2A40390E67E4}"/>
-    <hyperlink ref="G40" r:id="rId36" xr:uid="{D23694B0-2E8C-5C4D-AA39-FFA20FA00800}"/>
-    <hyperlink ref="G41" r:id="rId37" xr:uid="{1654A9D4-65E8-9F4F-8DE2-4A51E8C5F1FA}"/>
-    <hyperlink ref="G39" r:id="rId38" xr:uid="{322824A7-B8BE-CE4A-9140-04CF199293F0}"/>
+    <hyperlink ref="G39" r:id="rId36" xr:uid="{322824A7-B8BE-CE4A-9140-04CF199293F0}"/>
+    <hyperlink ref="G41" r:id="rId37" xr:uid="{75414802-46F0-FB4F-AB5B-746E343B5310}"/>
+    <hyperlink ref="G40" r:id="rId38" xr:uid="{D121D190-6997-DE49-B711-B0A0F985B6AC}"/>
+    <hyperlink ref="G42" r:id="rId39" xr:uid="{79020FD8-1031-EE4E-AD55-E6B083D09D45}"/>
+    <hyperlink ref="G43" r:id="rId40" xr:uid="{22036C22-E126-FF4D-B5AB-64C14DF4FB9F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2453,10 +2534,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A604AB1-DDFC-4B40-85A4-D0BC5335EE4C}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2467,12 +2548,13 @@
     <col min="4" max="4" width="90.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.33203125" customWidth="1"/>
+    <col min="8" max="8" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -2492,19 +2574,22 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -2524,13 +2609,16 @@
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -2548,12 +2636,13 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -2569,14 +2658,14 @@
       <c r="E4" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -2592,14 +2681,14 @@
       <c r="E5" t="s">
         <v>300</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -2615,11 +2704,11 @@
       <c r="E6" t="s">
         <v>77</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -2638,14 +2727,15 @@
       <c r="F7" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="G7" s="1"/>
+      <c r="I7" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -2661,11 +2751,11 @@
       <c r="E8" t="s">
         <v>80</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -2676,16 +2766,16 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="E9" t="s">
+        <v>344</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -2701,11 +2791,11 @@
       <c r="E10" t="s">
         <v>296</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -2721,11 +2811,11 @@
       <c r="E11" t="s">
         <v>74</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -2742,7 +2832,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -2759,7 +2849,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -2778,14 +2868,15 @@
       <c r="F14" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -2802,7 +2893,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -2819,7 +2910,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -2835,11 +2926,11 @@
       <c r="E17" t="s">
         <v>84</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -2858,11 +2949,11 @@
       <c r="F18" t="s">
         <v>60</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -2879,7 +2970,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -2893,7 +2984,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -2910,7 +3001,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -2929,14 +3020,15 @@
       <c r="F22" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="2"/>
+      <c r="H22" t="s">
         <v>63</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -2952,11 +3044,11 @@
       <c r="E23" t="s">
         <v>91</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -2975,11 +3067,11 @@
       <c r="F24" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -2996,7 +3088,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -3013,7 +3105,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -3032,11 +3124,12 @@
       <c r="F27" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="1"/>
+      <c r="H27" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -3053,7 +3146,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -3076,24 +3169,25 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{1DE0CD26-AAF6-C14D-AC57-1E20477BBEF9}"/>
-    <hyperlink ref="G2" r:id="rId2" xr:uid="{4B69F9D1-9BDC-3B49-95D5-B892E0F38E93}"/>
-    <hyperlink ref="G11" r:id="rId3" xr:uid="{F297B546-961A-904C-8B57-270571840D4C}"/>
-    <hyperlink ref="H4" r:id="rId4" xr:uid="{82F2EFE6-4E28-F34E-B218-DAA2AC17ECFE}"/>
-    <hyperlink ref="G24" r:id="rId5" xr:uid="{B5F9801A-D1FF-F945-B5EA-A95297A9AC9E}"/>
+    <hyperlink ref="H2" r:id="rId2" xr:uid="{4B69F9D1-9BDC-3B49-95D5-B892E0F38E93}"/>
+    <hyperlink ref="H11" r:id="rId3" xr:uid="{F297B546-961A-904C-8B57-270571840D4C}"/>
+    <hyperlink ref="I4" r:id="rId4" xr:uid="{82F2EFE6-4E28-F34E-B218-DAA2AC17ECFE}"/>
+    <hyperlink ref="H24" r:id="rId5" xr:uid="{B5F9801A-D1FF-F945-B5EA-A95297A9AC9E}"/>
     <hyperlink ref="F27" r:id="rId6" xr:uid="{7C843EC2-4C8D-4641-BB36-2B0270ADEE55}"/>
-    <hyperlink ref="H3" r:id="rId7" xr:uid="{B1C6FFD0-CEC7-F545-85D8-C469FD54EC40}"/>
-    <hyperlink ref="H6" r:id="rId8" xr:uid="{0B982E49-986A-0941-8C32-ADEAA21D9033}"/>
-    <hyperlink ref="H7" r:id="rId9" xr:uid="{82A7CA40-D4B3-CD48-B0DD-40DB2C17FB15}"/>
+    <hyperlink ref="I3" r:id="rId7" xr:uid="{B1C6FFD0-CEC7-F545-85D8-C469FD54EC40}"/>
+    <hyperlink ref="I6" r:id="rId8" xr:uid="{0B982E49-986A-0941-8C32-ADEAA21D9033}"/>
+    <hyperlink ref="I7" r:id="rId9" xr:uid="{82A7CA40-D4B3-CD48-B0DD-40DB2C17FB15}"/>
     <hyperlink ref="F7" r:id="rId10" xr:uid="{DBABC5AF-727A-5F45-976D-9D37304F647C}"/>
-    <hyperlink ref="H8" r:id="rId11" xr:uid="{D81BC1A6-DB5E-2442-8092-0DCC05080E7B}"/>
+    <hyperlink ref="I8" r:id="rId11" xr:uid="{D81BC1A6-DB5E-2442-8092-0DCC05080E7B}"/>
     <hyperlink ref="F14" r:id="rId12" xr:uid="{671646BC-4048-784B-A41A-EE3B6A5872DF}"/>
-    <hyperlink ref="G14" r:id="rId13" xr:uid="{520C3AB8-D98F-5A41-A791-18E65C05A26D}"/>
-    <hyperlink ref="H14" r:id="rId14" xr:uid="{AC194642-8CCA-D045-8B43-2E593C852C84}"/>
-    <hyperlink ref="J7" r:id="rId15" xr:uid="{7AD87150-852A-EC48-8A33-35899592670A}"/>
-    <hyperlink ref="H10" r:id="rId16" display="mailto:Jyin5@uoregon.edu" xr:uid="{BD89C2C8-01DA-0945-8C45-44FC2597E1A0}"/>
-    <hyperlink ref="H5" r:id="rId17" display="mailto:konao@uoregon.edu" xr:uid="{99A77FB4-F7EA-7A4E-A1D6-82B0846E355F}"/>
-    <hyperlink ref="J5" r:id="rId18" xr:uid="{72314501-811D-D043-997F-E392845F576D}"/>
-    <hyperlink ref="H9" r:id="rId19" xr:uid="{3B7DC98F-564E-8040-ABB3-24351F91CBD2}"/>
+    <hyperlink ref="H14" r:id="rId13" xr:uid="{520C3AB8-D98F-5A41-A791-18E65C05A26D}"/>
+    <hyperlink ref="I14" r:id="rId14" xr:uid="{AC194642-8CCA-D045-8B43-2E593C852C84}"/>
+    <hyperlink ref="K7" r:id="rId15" xr:uid="{7AD87150-852A-EC48-8A33-35899592670A}"/>
+    <hyperlink ref="I10" r:id="rId16" display="mailto:Jyin5@uoregon.edu" xr:uid="{BD89C2C8-01DA-0945-8C45-44FC2597E1A0}"/>
+    <hyperlink ref="I5" r:id="rId17" display="mailto:konao@uoregon.edu" xr:uid="{99A77FB4-F7EA-7A4E-A1D6-82B0846E355F}"/>
+    <hyperlink ref="K5" r:id="rId18" xr:uid="{72314501-811D-D043-997F-E392845F576D}"/>
+    <hyperlink ref="I9" r:id="rId19" xr:uid="{3B7DC98F-564E-8040-ABB3-24351F91CBD2}"/>
+    <hyperlink ref="G2" r:id="rId20" xr:uid="{944B277E-1502-DF4C-99EE-2856B2C13CD9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
